--- a/jupyter_notebooks/file/input/switches_v1/network.xlsx
+++ b/jupyter_notebooks/file/input/switches_v1/network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\switches_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E67D017-D516-4D53-9EE8-C51833BE3369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD918191-1724-430E-8689-B64AD4AF6EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="189">
   <si>
     <t>name</t>
   </si>
@@ -477,12 +477,6 @@
   </si>
   <si>
     <t>g16</t>
-  </si>
-  <si>
-    <t>delta x</t>
-  </si>
-  <si>
-    <t>delta y</t>
   </si>
   <si>
     <t>asset</t>
@@ -978,21 +972,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3">
         <f>F2+TIME(1,0,0)</f>
@@ -1004,10 +998,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1015,10 +1009,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3">
         <v>44562.5</v>
@@ -1026,10 +1020,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1345,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1359,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1373,7 +1367,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1387,7 +1381,7 @@
         <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1401,7 +1395,7 @@
         <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1415,7 +1409,7 @@
         <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1429,7 +1423,7 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1443,7 +1437,7 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1460,9 +1454,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:U1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1471,9 +1467,9 @@
     <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1500,12 +1496,12 @@
         <v>138</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1535,3175 +1531,1588 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
       </c>
       <c r="B3">
-        <f>N3*$M$3</f>
         <v>294.21799405131799</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C50" si="0">O3*$M$3</f>
         <v>191.41470544397401</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D50" si="1">P3*$M$3</f>
         <v>21.168152320814748</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E50" si="2">Q3*$M$3</f>
         <v>47.009076066597899</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F50" si="3">R3*$M$3</f>
         <v>16.340925416841252</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G50" si="4">S3*$M$3</f>
         <v>28.231579920259698</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H50" si="5">T3*$M$3</f>
         <v>18.49814956171835</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I50" si="6">U3*$M$3</f>
         <v>21.371639409315751</v>
       </c>
       <c r="J3">
-        <f>AVERAGE(H3:I3)</f>
         <v>19.934894485517049</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>58.8435988102636</v>
-      </c>
-      <c r="O3">
-        <v>38.2829410887948</v>
-      </c>
-      <c r="P3">
-        <v>4.2336304641629496</v>
-      </c>
-      <c r="Q3">
-        <v>9.4018152133195798</v>
-      </c>
-      <c r="R3">
-        <v>3.26818508336825</v>
-      </c>
-      <c r="S3">
-        <v>5.6463159840519399</v>
-      </c>
-      <c r="T3">
-        <v>3.6996299123436698</v>
-      </c>
-      <c r="U3">
-        <v>4.27432788186315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>A3+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B50" si="7">N4*$M$3</f>
         <v>241.71672767745201</v>
       </c>
       <c r="C4">
+        <v>329.76324646224953</v>
+      </c>
+      <c r="D4">
+        <v>6.5516283754893001</v>
+      </c>
+      <c r="E4">
+        <v>20.8858503004795</v>
+      </c>
+      <c r="F4">
+        <v>1.9477235659960048</v>
+      </c>
+      <c r="G4">
+        <v>35.656441738070299</v>
+      </c>
+      <c r="H4">
+        <v>18.511494973593699</v>
+      </c>
+      <c r="I4">
+        <v>28.105959665329753</v>
+      </c>
+      <c r="J4">
+        <v>23.308727319461724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" ref="A5:A50" si="0">A4+TIME(1,0,0)</f>
+        <v>44562.083333333328</v>
+      </c>
+      <c r="B5">
+        <v>156.2362569640095</v>
+      </c>
+      <c r="C5">
+        <v>191.36307212008549</v>
+      </c>
+      <c r="D5">
+        <v>3.9975508672317348</v>
+      </c>
+      <c r="E5">
+        <v>15.373588500254399</v>
+      </c>
+      <c r="F5">
+        <v>44.467621765177299</v>
+      </c>
+      <c r="G5">
+        <v>4.9570485566215998</v>
+      </c>
+      <c r="H5">
+        <v>25.821639616447651</v>
+      </c>
+      <c r="I5">
+        <v>9.1282470045272994</v>
+      </c>
+      <c r="J5">
+        <v>17.474943310487475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
-        <v>329.76324646224953</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>6.5516283754893001</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>20.8858503004795</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>1.9477235659960048</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
-        <v>35.656441738070299</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="5"/>
-        <v>18.511494973593699</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="6"/>
-        <v>28.105959665329753</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J50" si="8">AVERAGE(H4:I4)</f>
-        <v>23.308727319461724</v>
-      </c>
-      <c r="N4">
-        <v>48.3433455354904</v>
-      </c>
-      <c r="O4">
-        <v>65.952649292449905</v>
-      </c>
-      <c r="P4">
-        <v>1.31032567509786</v>
-      </c>
-      <c r="Q4">
-        <v>4.1771700600959001</v>
-      </c>
-      <c r="R4">
-        <v>0.38954471319920098</v>
-      </c>
-      <c r="S4">
-        <v>7.1312883476140598</v>
-      </c>
-      <c r="T4">
-        <v>3.7022989947187401</v>
-      </c>
-      <c r="U4">
-        <v>5.6211919330659503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f t="shared" ref="A5:A50" si="9">A4+TIME(1,0,0)</f>
-        <v>44562.083333333328</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="7"/>
-        <v>156.2362569640095</v>
-      </c>
-      <c r="C5">
+        <v>44562.124999999993</v>
+      </c>
+      <c r="B6">
+        <v>158.12535726987102</v>
+      </c>
+      <c r="C6">
+        <v>68.585185994575511</v>
+      </c>
+      <c r="D6">
+        <v>29.507507883899549</v>
+      </c>
+      <c r="E6">
+        <v>46.698986205525451</v>
+      </c>
+      <c r="F6">
+        <v>10.562522211575951</v>
+      </c>
+      <c r="G6">
+        <v>32.932855445849654</v>
+      </c>
+      <c r="H6">
+        <v>15.139846339278751</v>
+      </c>
+      <c r="I6">
+        <v>15.708574163724149</v>
+      </c>
+      <c r="J6">
+        <v>15.424210251501449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
-        <v>191.36307212008549</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>3.9975508672317348</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>15.373588500254399</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>44.467621765177299</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>4.9570485566215998</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="5"/>
-        <v>25.821639616447651</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="6"/>
-        <v>9.1282470045272994</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="8"/>
-        <v>17.474943310487475</v>
-      </c>
-      <c r="N5">
-        <v>31.2472513928019</v>
-      </c>
-      <c r="O5">
-        <v>38.2726144240171</v>
-      </c>
-      <c r="P5">
-        <v>0.79951017344634701</v>
-      </c>
-      <c r="Q5">
-        <v>3.0747177000508801</v>
-      </c>
-      <c r="R5">
-        <v>8.8935243530354597</v>
-      </c>
-      <c r="S5">
-        <v>0.99140971132431999</v>
-      </c>
-      <c r="T5">
-        <v>5.1643279232895303</v>
-      </c>
-      <c r="U5">
-        <v>1.82564940090546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.124999999993</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="7"/>
-        <v>158.12535726987102</v>
-      </c>
-      <c r="C6">
+        <v>44562.166666666657</v>
+      </c>
+      <c r="B7">
+        <v>247.83620422220599</v>
+      </c>
+      <c r="C7">
+        <v>58.362010291136002</v>
+      </c>
+      <c r="D7">
+        <v>1.8915939518554201</v>
+      </c>
+      <c r="E7">
+        <v>30.88259735951555</v>
+      </c>
+      <c r="F7">
+        <v>32.188579901159301</v>
+      </c>
+      <c r="G7">
+        <v>33.404046696543503</v>
+      </c>
+      <c r="H7">
+        <v>14.057153077671449</v>
+      </c>
+      <c r="I7">
+        <v>12.2020182929984</v>
+      </c>
+      <c r="J7">
+        <v>13.129585685334924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
-        <v>68.585185994575511</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>29.507507883899549</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>46.698986205525451</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>10.562522211575951</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>32.932855445849654</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="5"/>
-        <v>15.139846339278751</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="6"/>
-        <v>15.708574163724149</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="8"/>
-        <v>15.424210251501449</v>
-      </c>
-      <c r="N6">
-        <v>31.625071453974201</v>
-      </c>
-      <c r="O6">
-        <v>13.717037198915101</v>
-      </c>
-      <c r="P6">
-        <v>5.9015015767799097</v>
-      </c>
-      <c r="Q6">
-        <v>9.3397972411050905</v>
-      </c>
-      <c r="R6">
-        <v>2.1125044423151902</v>
-      </c>
-      <c r="S6">
-        <v>6.5865710891699303</v>
-      </c>
-      <c r="T6">
-        <v>3.0279692678557502</v>
-      </c>
-      <c r="U6">
-        <v>3.1417148327448299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.166666666657</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="7"/>
-        <v>247.83620422220599</v>
-      </c>
-      <c r="C7">
+        <v>44562.208333333321</v>
+      </c>
+      <c r="B8">
+        <v>260.850703055417</v>
+      </c>
+      <c r="C8">
+        <v>92.605518018929999</v>
+      </c>
+      <c r="D8">
+        <v>46.102789229810043</v>
+      </c>
+      <c r="E8">
+        <v>18.097034089401149</v>
+      </c>
+      <c r="F8">
+        <v>18.2707431005127</v>
+      </c>
+      <c r="G8">
+        <v>27.571771320126249</v>
+      </c>
+      <c r="H8">
+        <v>34.769894356158446</v>
+      </c>
+      <c r="I8">
+        <v>8.4403475853385999</v>
+      </c>
+      <c r="J8">
+        <v>21.605120970748523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
-        <v>58.362010291136002</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1.8915939518554201</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>30.88259735951555</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>32.188579901159301</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>33.404046696543503</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="5"/>
-        <v>14.057153077671449</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="6"/>
-        <v>12.2020182929984</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="8"/>
-        <v>13.129585685334924</v>
-      </c>
-      <c r="N7">
-        <v>49.567240844441201</v>
-      </c>
-      <c r="O7">
-        <v>11.672402058227201</v>
-      </c>
-      <c r="P7">
-        <v>0.37831879037108401</v>
-      </c>
-      <c r="Q7">
-        <v>6.1765194719031102</v>
-      </c>
-      <c r="R7">
-        <v>6.43771598023186</v>
-      </c>
-      <c r="S7">
-        <v>6.6808093393087002</v>
-      </c>
-      <c r="T7">
-        <v>2.8114306155342899</v>
-      </c>
-      <c r="U7">
-        <v>2.44040365859968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.208333333321</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="7"/>
-        <v>260.850703055417</v>
-      </c>
-      <c r="C8">
+        <v>44562.249999999985</v>
+      </c>
+      <c r="B9">
+        <v>113.34637689364151</v>
+      </c>
+      <c r="C9">
+        <v>300.34620427306049</v>
+      </c>
+      <c r="D9">
+        <v>33.317018933915151</v>
+      </c>
+      <c r="E9">
+        <v>21.237027917726451</v>
+      </c>
+      <c r="F9">
+        <v>41.3082008201024</v>
+      </c>
+      <c r="G9">
+        <v>37.925623311290252</v>
+      </c>
+      <c r="H9">
+        <v>1.2908381765682999</v>
+      </c>
+      <c r="I9">
+        <v>28.807963169901448</v>
+      </c>
+      <c r="J9">
+        <v>15.049400673234874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
-        <v>92.605518018929999</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>46.102789229810043</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>18.097034089401149</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>18.2707431005127</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>27.571771320126249</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="5"/>
-        <v>34.769894356158446</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="6"/>
-        <v>8.4403475853385999</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="8"/>
-        <v>21.605120970748523</v>
-      </c>
-      <c r="N8">
-        <v>52.170140611083397</v>
-      </c>
-      <c r="O8">
-        <v>18.521103603785999</v>
-      </c>
-      <c r="P8">
-        <v>9.2205578459620092</v>
-      </c>
-      <c r="Q8">
-        <v>3.6194068178802299</v>
-      </c>
-      <c r="R8">
-        <v>3.6541486201025402</v>
-      </c>
-      <c r="S8">
-        <v>5.5143542640252496</v>
-      </c>
-      <c r="T8">
-        <v>6.9539788712316897</v>
-      </c>
-      <c r="U8">
-        <v>1.68806951706772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.249999999985</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="7"/>
-        <v>113.34637689364151</v>
-      </c>
-      <c r="C9">
+        <v>44562.29166666665</v>
+      </c>
+      <c r="B10">
+        <v>170.20448695461999</v>
+      </c>
+      <c r="C10">
+        <v>174.48167667795548</v>
+      </c>
+      <c r="D10">
+        <v>41.6582606232394</v>
+      </c>
+      <c r="E10">
+        <v>12.248348299802501</v>
+      </c>
+      <c r="F10">
+        <v>33.322567151161252</v>
+      </c>
+      <c r="G10">
+        <v>22.014371334754998</v>
+      </c>
+      <c r="H10">
+        <v>9.3910379714398999</v>
+      </c>
+      <c r="I10">
+        <v>22.373377782791152</v>
+      </c>
+      <c r="J10">
+        <v>15.882207877115526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
-        <v>300.34620427306049</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>33.317018933915151</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>21.237027917726451</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>41.3082008201024</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>37.925623311290252</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>1.2908381765682999</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>28.807963169901448</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="8"/>
-        <v>15.049400673234874</v>
-      </c>
-      <c r="N9">
-        <v>22.669275378728301</v>
-      </c>
-      <c r="O9">
-        <v>60.069240854612097</v>
-      </c>
-      <c r="P9">
-        <v>6.6634037867830296</v>
-      </c>
-      <c r="Q9">
-        <v>4.24740558354529</v>
-      </c>
-      <c r="R9">
-        <v>8.2616401640204806</v>
-      </c>
-      <c r="S9">
-        <v>7.5851246622580497</v>
-      </c>
-      <c r="T9">
-        <v>0.25816763531365999</v>
-      </c>
-      <c r="U9">
-        <v>5.7615926339802899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.29166666665</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="7"/>
-        <v>170.20448695461999</v>
-      </c>
-      <c r="C10">
+        <v>44562.333333333314</v>
+      </c>
+      <c r="B11">
+        <v>149.373933910224</v>
+      </c>
+      <c r="C11">
+        <v>32.952572530700401</v>
+      </c>
+      <c r="D11">
+        <v>45.393999755125797</v>
+      </c>
+      <c r="E11">
+        <v>13.704858200695851</v>
+      </c>
+      <c r="F11">
+        <v>6.7276601824837998</v>
+      </c>
+      <c r="G11">
+        <v>21.31574843368595</v>
+      </c>
+      <c r="H11">
+        <v>29.744542554268797</v>
+      </c>
+      <c r="I11">
+        <v>4.9616913424379501</v>
+      </c>
+      <c r="J11">
+        <v>17.353116948353374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
-        <v>174.48167667795548</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>41.6582606232394</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>12.248348299802501</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>33.322567151161252</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>22.014371334754998</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="5"/>
-        <v>9.3910379714398999</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="6"/>
-        <v>22.373377782791152</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="8"/>
-        <v>15.882207877115526</v>
-      </c>
-      <c r="N10">
-        <v>34.040897390924002</v>
-      </c>
-      <c r="O10">
-        <v>34.896335335591097</v>
-      </c>
-      <c r="P10">
-        <v>8.3316521246478796</v>
-      </c>
-      <c r="Q10">
-        <v>2.4496696599605001</v>
-      </c>
-      <c r="R10">
-        <v>6.6645134302322502</v>
-      </c>
-      <c r="S10">
-        <v>4.4028742669509997</v>
-      </c>
-      <c r="T10">
-        <v>1.8782075942879799</v>
-      </c>
-      <c r="U10">
-        <v>4.4746755565582301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.333333333314</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="7"/>
-        <v>149.373933910224</v>
-      </c>
-      <c r="C11">
+        <v>44562.374999999978</v>
+      </c>
+      <c r="B12">
+        <v>191.5591215740555</v>
+      </c>
+      <c r="C12">
+        <v>349.44388098049154</v>
+      </c>
+      <c r="D12">
+        <v>10.138196066751151</v>
+      </c>
+      <c r="E12">
+        <v>14.534444825787951</v>
+      </c>
+      <c r="F12">
+        <v>29.797762448006647</v>
+      </c>
+      <c r="G12">
+        <v>2.1698579267227598</v>
+      </c>
+      <c r="H12">
+        <v>32.214675063691899</v>
+      </c>
+      <c r="I12">
+        <v>7.2522069367350497</v>
+      </c>
+      <c r="J12">
+        <v>19.733441000213475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
-        <v>32.952572530700401</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>45.393999755125797</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>13.704858200695851</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>6.7276601824837998</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>21.31574843368595</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="5"/>
-        <v>29.744542554268797</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="6"/>
-        <v>4.9616913424379501</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="8"/>
-        <v>17.353116948353374</v>
-      </c>
-      <c r="N11">
-        <v>29.874786782044801</v>
-      </c>
-      <c r="O11">
-        <v>6.5905145061400798</v>
-      </c>
-      <c r="P11">
-        <v>9.0787999510251591</v>
-      </c>
-      <c r="Q11">
-        <v>2.7409716401391702</v>
-      </c>
-      <c r="R11">
-        <v>1.34553203649676</v>
-      </c>
-      <c r="S11">
-        <v>4.2631496867371901</v>
-      </c>
-      <c r="T11">
-        <v>5.9489085108537596</v>
-      </c>
-      <c r="U11">
-        <v>0.99233826848758999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.374999999978</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="7"/>
-        <v>191.5591215740555</v>
-      </c>
-      <c r="C12">
+        <v>44562.416666666642</v>
+      </c>
+      <c r="B13">
+        <v>295.58669518685247</v>
+      </c>
+      <c r="C13">
+        <v>115.679528450915</v>
+      </c>
+      <c r="D13">
+        <v>24.879103241394848</v>
+      </c>
+      <c r="E13">
+        <v>39.365457952661899</v>
+      </c>
+      <c r="F13">
+        <v>42.071404361963502</v>
+      </c>
+      <c r="G13">
+        <v>7.5540885679005996</v>
+      </c>
+      <c r="H13">
+        <v>6.0648219809037496</v>
+      </c>
+      <c r="I13">
+        <v>17.212243949782501</v>
+      </c>
+      <c r="J13">
+        <v>11.638532965343124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
-        <v>349.44388098049154</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>10.138196066751151</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>14.534444825787951</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>29.797762448006647</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>2.1698579267227598</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="5"/>
-        <v>32.214675063691899</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
-        <v>7.2522069367350497</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>19.733441000213475</v>
-      </c>
-      <c r="N12">
-        <v>38.311824314811098</v>
-      </c>
-      <c r="O12">
-        <v>69.888776196098306</v>
-      </c>
-      <c r="P12">
-        <v>2.0276392133502301</v>
-      </c>
-      <c r="Q12">
-        <v>2.9068889651575902</v>
-      </c>
-      <c r="R12">
-        <v>5.9595524896013297</v>
-      </c>
-      <c r="S12">
-        <v>0.43397158534455199</v>
-      </c>
-      <c r="T12">
-        <v>6.4429350127383804</v>
-      </c>
-      <c r="U12">
-        <v>1.4504413873470099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.416666666642</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="7"/>
-        <v>295.58669518685247</v>
-      </c>
-      <c r="C13">
+        <v>44562.458333333307</v>
+      </c>
+      <c r="B14">
+        <v>142.40365469968751</v>
+      </c>
+      <c r="C14">
+        <v>21.877091128298602</v>
+      </c>
+      <c r="D14">
+        <v>36.86770702357785</v>
+      </c>
+      <c r="E14">
+        <v>2.225914923908225</v>
+      </c>
+      <c r="F14">
+        <v>25.068250480440351</v>
+      </c>
+      <c r="G14">
+        <v>18.116252681980647</v>
+      </c>
+      <c r="H14">
+        <v>29.897647084137148</v>
+      </c>
+      <c r="I14">
+        <v>14.492097950783201</v>
+      </c>
+      <c r="J14">
+        <v>22.194872517460176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>115.679528450915</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>24.879103241394848</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>39.365457952661899</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>42.071404361963502</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>7.5540885679005996</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="5"/>
-        <v>6.0648219809037496</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
-        <v>17.212243949782501</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="8"/>
-        <v>11.638532965343124</v>
-      </c>
-      <c r="N13">
-        <v>59.117339037370499</v>
-      </c>
-      <c r="O13">
-        <v>23.135905690183002</v>
-      </c>
-      <c r="P13">
-        <v>4.9758206482789697</v>
-      </c>
-      <c r="Q13">
-        <v>7.8730915905323799</v>
-      </c>
-      <c r="R13">
-        <v>8.4142808723927001</v>
-      </c>
-      <c r="S13">
-        <v>1.51081771358012</v>
-      </c>
-      <c r="T13">
-        <v>1.2129643961807499</v>
-      </c>
-      <c r="U13">
-        <v>3.4424487899564999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.458333333307</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="7"/>
-        <v>142.40365469968751</v>
-      </c>
-      <c r="C14">
+        <v>44562.499999999971</v>
+      </c>
+      <c r="B15">
+        <v>135.98605146444299</v>
+      </c>
+      <c r="C15">
+        <v>169.68391061784399</v>
+      </c>
+      <c r="D15">
+        <v>43.380098557080402</v>
+      </c>
+      <c r="E15">
+        <v>44.447048370940301</v>
+      </c>
+      <c r="F15">
+        <v>38.979297681127449</v>
+      </c>
+      <c r="G15">
+        <v>37.11415249104455</v>
+      </c>
+      <c r="H15">
+        <v>7.6933698691567001</v>
+      </c>
+      <c r="I15">
+        <v>1.3686658934214349</v>
+      </c>
+      <c r="J15">
+        <v>4.5310178812890678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
-        <v>21.877091128298602</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>36.86770702357785</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>2.225914923908225</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>25.068250480440351</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>18.116252681980647</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="5"/>
-        <v>29.897647084137148</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="6"/>
-        <v>14.492097950783201</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="8"/>
-        <v>22.194872517460176</v>
-      </c>
-      <c r="N14">
-        <v>28.480730939937501</v>
-      </c>
-      <c r="O14">
-        <v>4.3754182256597201</v>
-      </c>
-      <c r="P14">
-        <v>7.3735414047155698</v>
-      </c>
-      <c r="Q14">
-        <v>0.44518298478164497</v>
-      </c>
-      <c r="R14">
-        <v>5.0136500960880701</v>
-      </c>
-      <c r="S14">
-        <v>3.6232505363961298</v>
-      </c>
-      <c r="T14">
-        <v>5.9795294168274298</v>
-      </c>
-      <c r="U14">
-        <v>2.8984195901566401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.499999999971</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="7"/>
-        <v>135.98605146444299</v>
-      </c>
-      <c r="C15">
+        <v>44562.541666666635</v>
+      </c>
+      <c r="B16">
+        <v>208.947084055647</v>
+      </c>
+      <c r="C16">
+        <v>176.77649551666849</v>
+      </c>
+      <c r="D16">
+        <v>33.949452850376652</v>
+      </c>
+      <c r="E16">
+        <v>24.447587311587249</v>
+      </c>
+      <c r="F16">
+        <v>11.777519504424451</v>
+      </c>
+      <c r="G16">
+        <v>31.753817032572602</v>
+      </c>
+      <c r="H16">
+        <v>11.06707594288185</v>
+      </c>
+      <c r="I16">
+        <v>11.417938080505099</v>
+      </c>
+      <c r="J16">
+        <v>11.242507011693474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>169.68391061784399</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>43.380098557080402</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>44.447048370940301</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>38.979297681127449</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>37.11415249104455</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
-        <v>7.6933698691567001</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
-        <v>1.3686658934214349</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="8"/>
-        <v>4.5310178812890678</v>
-      </c>
-      <c r="N15">
-        <v>27.197210292888599</v>
-      </c>
-      <c r="O15">
-        <v>33.936782123568797</v>
-      </c>
-      <c r="P15">
-        <v>8.67601971141608</v>
-      </c>
-      <c r="Q15">
-        <v>8.8894096741880606</v>
-      </c>
-      <c r="R15">
-        <v>7.7958595362254899</v>
-      </c>
-      <c r="S15">
-        <v>7.4228304982089099</v>
-      </c>
-      <c r="T15">
-        <v>1.53867397383134</v>
-      </c>
-      <c r="U15">
-        <v>0.27373317868428698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.541666666635</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="7"/>
-        <v>208.947084055647</v>
-      </c>
-      <c r="C16">
+        <v>44562.583333333299</v>
+      </c>
+      <c r="B17">
+        <v>181.84699498189349</v>
+      </c>
+      <c r="C17">
+        <v>94.768277134647505</v>
+      </c>
+      <c r="D17">
+        <v>49.782778189994502</v>
+      </c>
+      <c r="E17">
+        <v>21.695097261732247</v>
+      </c>
+      <c r="F17">
+        <v>3.70744931917499</v>
+      </c>
+      <c r="G17">
+        <v>22.713283479434651</v>
+      </c>
+      <c r="H17">
+        <v>13.475341072005449</v>
+      </c>
+      <c r="I17">
+        <v>16.021186417961001</v>
+      </c>
+      <c r="J17">
+        <v>14.748263744983225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>176.77649551666849</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>33.949452850376652</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>24.447587311587249</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>11.777519504424451</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>31.753817032572602</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="5"/>
-        <v>11.06707594288185</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="6"/>
-        <v>11.417938080505099</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="8"/>
-        <v>11.242507011693474</v>
-      </c>
-      <c r="N16">
-        <v>41.789416811129399</v>
-      </c>
-      <c r="O16">
-        <v>35.355299103333699</v>
-      </c>
-      <c r="P16">
-        <v>6.7898905700753298</v>
-      </c>
-      <c r="Q16">
-        <v>4.8895174623174498</v>
-      </c>
-      <c r="R16">
-        <v>2.3555039008848899</v>
-      </c>
-      <c r="S16">
-        <v>6.3507634065145204</v>
-      </c>
-      <c r="T16">
-        <v>2.21341518857637</v>
-      </c>
-      <c r="U16">
-        <v>2.2835876161010198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.583333333299</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="7"/>
-        <v>181.84699498189349</v>
-      </c>
-      <c r="C17">
+        <v>44562.624999999964</v>
+      </c>
+      <c r="B18">
+        <v>89.644930677771995</v>
+      </c>
+      <c r="C18">
+        <v>207.09224364177348</v>
+      </c>
+      <c r="D18">
+        <v>17.88168328322725</v>
+      </c>
+      <c r="E18">
+        <v>25.932650751017199</v>
+      </c>
+      <c r="F18">
+        <v>5.7685250380233999</v>
+      </c>
+      <c r="G18">
+        <v>7.9620087193882503</v>
+      </c>
+      <c r="H18">
+        <v>23.852924208544849</v>
+      </c>
+      <c r="I18">
+        <v>21.7746678352377</v>
+      </c>
+      <c r="J18">
+        <v>22.813796021891275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>94.768277134647505</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>49.782778189994502</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>21.695097261732247</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>3.70744931917499</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>22.713283479434651</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="5"/>
-        <v>13.475341072005449</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>16.021186417961001</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="8"/>
-        <v>14.748263744983225</v>
-      </c>
-      <c r="N17">
-        <v>36.369398996378699</v>
-      </c>
-      <c r="O17">
-        <v>18.953655426929501</v>
-      </c>
-      <c r="P17">
-        <v>9.9565556379988998</v>
-      </c>
-      <c r="Q17">
-        <v>4.3390194523464496</v>
-      </c>
-      <c r="R17">
-        <v>0.74148986383499804</v>
-      </c>
-      <c r="S17">
-        <v>4.5426566958869303</v>
-      </c>
-      <c r="T17">
-        <v>2.6950682144010898</v>
-      </c>
-      <c r="U17">
-        <v>3.2042372835921999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.624999999964</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="7"/>
-        <v>89.644930677771995</v>
-      </c>
-      <c r="C18">
+        <v>44562.666666666628</v>
+      </c>
+      <c r="B19">
+        <v>86.238786687498987</v>
+      </c>
+      <c r="C19">
+        <v>293.49394066997002</v>
+      </c>
+      <c r="D19">
+        <v>11.668530685371501</v>
+      </c>
+      <c r="E19">
+        <v>3.2115967899839597</v>
+      </c>
+      <c r="F19">
+        <v>3.2601058191547598</v>
+      </c>
+      <c r="G19">
+        <v>18.147196881748449</v>
+      </c>
+      <c r="H19">
+        <v>26.70163794576645</v>
+      </c>
+      <c r="I19">
+        <v>7.2052768923937007</v>
+      </c>
+      <c r="J19">
+        <v>16.953457419080074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>207.09224364177348</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>17.88168328322725</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>25.932650751017199</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>5.7685250380233999</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>7.9620087193882503</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="5"/>
-        <v>23.852924208544849</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
-        <v>21.7746678352377</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="8"/>
-        <v>22.813796021891275</v>
-      </c>
-      <c r="N18">
-        <v>17.9289861355544</v>
-      </c>
-      <c r="O18">
-        <v>41.418448728354697</v>
-      </c>
-      <c r="P18">
-        <v>3.57633665664545</v>
-      </c>
-      <c r="Q18">
-        <v>5.1865301502034402</v>
-      </c>
-      <c r="R18">
-        <v>1.15370500760468</v>
-      </c>
-      <c r="S18">
-        <v>1.5924017438776501</v>
-      </c>
-      <c r="T18">
-        <v>4.7705848417089696</v>
-      </c>
-      <c r="U18">
-        <v>4.3549335670475404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.666666666628</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="7"/>
-        <v>86.238786687498987</v>
-      </c>
-      <c r="C19">
+        <v>44562.708333333292</v>
+      </c>
+      <c r="B20">
+        <v>108.47817105691701</v>
+      </c>
+      <c r="C20">
+        <v>299.53254846493252</v>
+      </c>
+      <c r="D20">
+        <v>4.4866979436291698</v>
+      </c>
+      <c r="E20">
+        <v>8.3340255382288504</v>
+      </c>
+      <c r="F20">
+        <v>6.7228344704266991</v>
+      </c>
+      <c r="G20">
+        <v>31.86622254934835</v>
+      </c>
+      <c r="H20">
+        <v>2.9791155856932052</v>
+      </c>
+      <c r="I20">
+        <v>5.3483354798130502</v>
+      </c>
+      <c r="J20">
+        <v>4.1637255327531282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>293.49394066997002</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>11.668530685371501</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>3.2115967899839597</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>3.2601058191547598</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>18.147196881748449</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="5"/>
-        <v>26.70163794576645</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
-        <v>7.2052768923937007</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="8"/>
-        <v>16.953457419080074</v>
-      </c>
-      <c r="N19">
-        <v>17.247757337499799</v>
-      </c>
-      <c r="O19">
-        <v>58.698788133994</v>
-      </c>
-      <c r="P19">
-        <v>2.3337061370743002</v>
-      </c>
-      <c r="Q19">
-        <v>0.64231935799679196</v>
-      </c>
-      <c r="R19">
-        <v>0.65202116383095199</v>
-      </c>
-      <c r="S19">
-        <v>3.6294393763496902</v>
-      </c>
-      <c r="T19">
-        <v>5.34032758915329</v>
-      </c>
-      <c r="U19">
-        <v>1.4410553784787401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.708333333292</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="7"/>
-        <v>108.47817105691701</v>
-      </c>
-      <c r="C20">
+        <v>44562.749999999956</v>
+      </c>
+      <c r="B21">
+        <v>166.75213689332949</v>
+      </c>
+      <c r="C21">
+        <v>87.526614100929493</v>
+      </c>
+      <c r="D21">
+        <v>3.1713610125444953</v>
+      </c>
+      <c r="E21">
+        <v>16.575352417107251</v>
+      </c>
+      <c r="F21">
+        <v>20.779384531422501</v>
+      </c>
+      <c r="G21">
+        <v>38.107705208961697</v>
+      </c>
+      <c r="H21">
+        <v>25.016413952721201</v>
+      </c>
+      <c r="I21">
+        <v>10.881664988415249</v>
+      </c>
+      <c r="J21">
+        <v>17.949039470568223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
-        <v>299.53254846493252</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>4.4866979436291698</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>8.3340255382288504</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>6.7228344704266991</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>31.86622254934835</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
-        <v>2.9791155856932052</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
-        <v>5.3483354798130502</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="8"/>
-        <v>4.1637255327531282</v>
-      </c>
-      <c r="N20">
-        <v>21.6956342113834</v>
-      </c>
-      <c r="O20">
-        <v>59.906509692986504</v>
-      </c>
-      <c r="P20">
-        <v>0.89733958872583397</v>
-      </c>
-      <c r="Q20">
-        <v>1.6668051076457699</v>
-      </c>
-      <c r="R20">
-        <v>1.3445668940853399</v>
-      </c>
-      <c r="S20">
-        <v>6.3732445098696697</v>
-      </c>
-      <c r="T20">
-        <v>0.595823117138641</v>
-      </c>
-      <c r="U20">
-        <v>1.06966709596261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.749999999956</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="7"/>
-        <v>166.75213689332949</v>
-      </c>
-      <c r="C21">
+        <v>44562.791666666621</v>
+      </c>
+      <c r="B22">
+        <v>101.1846329701595</v>
+      </c>
+      <c r="C22">
+        <v>62.745897146429002</v>
+      </c>
+      <c r="D22">
+        <v>46.551001757924993</v>
+      </c>
+      <c r="E22">
+        <v>20.743335449446949</v>
+      </c>
+      <c r="F22">
+        <v>41.6476738106551</v>
+      </c>
+      <c r="G22">
+        <v>30.434606285484552</v>
+      </c>
+      <c r="H22">
+        <v>0.22382241433921701</v>
+      </c>
+      <c r="I22">
+        <v>8.1500039867009999</v>
+      </c>
+      <c r="J22">
+        <v>4.1869132005201086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>87.526614100929493</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>3.1713610125444953</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>16.575352417107251</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>20.779384531422501</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>38.107705208961697</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
-        <v>25.016413952721201</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
-        <v>10.881664988415249</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="8"/>
-        <v>17.949039470568223</v>
-      </c>
-      <c r="N21">
-        <v>33.350427378665898</v>
-      </c>
-      <c r="O21">
-        <v>17.505322820185899</v>
-      </c>
-      <c r="P21">
-        <v>0.63427220250889904</v>
-      </c>
-      <c r="Q21">
-        <v>3.3150704834214499</v>
-      </c>
-      <c r="R21">
-        <v>4.1558769062845</v>
-      </c>
-      <c r="S21">
-        <v>7.6215410417923399</v>
-      </c>
-      <c r="T21">
-        <v>5.0032827905442403</v>
-      </c>
-      <c r="U21">
-        <v>2.1763329976830499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.791666666621</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="7"/>
-        <v>101.1846329701595</v>
-      </c>
-      <c r="C22">
+        <v>44562.833333333285</v>
+      </c>
+      <c r="B23">
+        <v>77.053749500659507</v>
+      </c>
+      <c r="C23">
+        <v>53.452696765957</v>
+      </c>
+      <c r="D23">
+        <v>15.145963413823999</v>
+      </c>
+      <c r="E23">
+        <v>19.619231377387948</v>
+      </c>
+      <c r="F23">
+        <v>25.98958648543535</v>
+      </c>
+      <c r="G23">
+        <v>28.567679286657949</v>
+      </c>
+      <c r="H23">
+        <v>32.031077560445553</v>
+      </c>
+      <c r="I23">
+        <v>26.956796269977652</v>
+      </c>
+      <c r="J23">
+        <v>29.493936915211602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>62.745897146429002</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>46.551001757924993</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>20.743335449446949</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>41.6476738106551</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>30.434606285484552</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
-        <v>0.22382241433921701</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="6"/>
-        <v>8.1500039867009999</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="8"/>
-        <v>4.1869132005201086</v>
-      </c>
-      <c r="N22">
-        <v>20.2369265940319</v>
-      </c>
-      <c r="O22">
-        <v>12.5491794292858</v>
-      </c>
-      <c r="P22">
-        <v>9.3102003515849994</v>
-      </c>
-      <c r="Q22">
-        <v>4.1486670898893898</v>
-      </c>
-      <c r="R22">
-        <v>8.3295347621310203</v>
-      </c>
-      <c r="S22">
-        <v>6.0869212570969102</v>
-      </c>
-      <c r="T22">
-        <v>4.4764482867843403E-2</v>
-      </c>
-      <c r="U22">
-        <v>1.6300007973402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.833333333285</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="7"/>
-        <v>77.053749500659507</v>
-      </c>
-      <c r="C23">
+        <v>44562.874999999949</v>
+      </c>
+      <c r="B24">
+        <v>232.79887354147948</v>
+      </c>
+      <c r="C24">
+        <v>223.42487941305399</v>
+      </c>
+      <c r="D24">
+        <v>26.066680769436452</v>
+      </c>
+      <c r="E24">
+        <v>20.19487576634015</v>
+      </c>
+      <c r="F24">
+        <v>43.882480934187804</v>
+      </c>
+      <c r="G24">
+        <v>35.404758480386498</v>
+      </c>
+      <c r="H24">
+        <v>23.654189367504049</v>
+      </c>
+      <c r="I24">
+        <v>13.1230883033355</v>
+      </c>
+      <c r="J24">
+        <v>18.388638835419776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>53.452696765957</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>15.145963413823999</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>19.619231377387948</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>25.98958648543535</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>28.567679286657949</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
-        <v>32.031077560445553</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="6"/>
-        <v>26.956796269977652</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="8"/>
-        <v>29.493936915211602</v>
-      </c>
-      <c r="N23">
-        <v>15.410749900131901</v>
-      </c>
-      <c r="O23">
-        <v>10.690539353191401</v>
-      </c>
-      <c r="P23">
-        <v>3.0291926827647999</v>
-      </c>
-      <c r="Q23">
-        <v>3.9238462754775898</v>
-      </c>
-      <c r="R23">
-        <v>5.19791729708707</v>
-      </c>
-      <c r="S23">
-        <v>5.71353585733159</v>
-      </c>
-      <c r="T23">
-        <v>6.4062155120891102</v>
-      </c>
-      <c r="U23">
-        <v>5.39135925399553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.874999999949</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="7"/>
-        <v>232.79887354147948</v>
-      </c>
-      <c r="C24">
+        <v>44562.916666666613</v>
+      </c>
+      <c r="B25">
+        <v>191.01927296785249</v>
+      </c>
+      <c r="C25">
+        <v>215.60905820585202</v>
+      </c>
+      <c r="D25">
+        <v>13.589159952943199</v>
+      </c>
+      <c r="E25">
+        <v>5.9896711504164504</v>
+      </c>
+      <c r="F25">
+        <v>13.5881145463223</v>
+      </c>
+      <c r="G25">
+        <v>21.375358050771549</v>
+      </c>
+      <c r="H25">
+        <v>18.643492730551699</v>
+      </c>
+      <c r="I25">
+        <v>8.8088712856655</v>
+      </c>
+      <c r="J25">
+        <v>13.7261820081086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>223.42487941305399</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>26.066680769436452</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>20.19487576634015</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>43.882480934187804</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>35.404758480386498</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="5"/>
-        <v>23.654189367504049</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="6"/>
-        <v>13.1230883033355</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="8"/>
-        <v>18.388638835419776</v>
-      </c>
-      <c r="N24">
-        <v>46.559774708295897</v>
-      </c>
-      <c r="O24">
-        <v>44.6849758826108</v>
-      </c>
-      <c r="P24">
-        <v>5.2133361538872904</v>
-      </c>
-      <c r="Q24">
-        <v>4.03897515326803</v>
-      </c>
-      <c r="R24">
-        <v>8.7764961868375604</v>
-      </c>
-      <c r="S24">
-        <v>7.0809516960772996</v>
-      </c>
-      <c r="T24">
-        <v>4.7308378735008096</v>
-      </c>
-      <c r="U24">
-        <v>2.6246176606670999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.916666666613</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="7"/>
-        <v>191.01927296785249</v>
-      </c>
-      <c r="C25">
+        <v>44562.958333333278</v>
+      </c>
+      <c r="B26">
+        <v>100.22130631205449</v>
+      </c>
+      <c r="C26">
+        <v>5.2350397866842506</v>
+      </c>
+      <c r="D26">
+        <v>19.148395761807251</v>
+      </c>
+      <c r="E26">
+        <v>35.015205763349051</v>
+      </c>
+      <c r="F26">
+        <v>41.191449389917601</v>
+      </c>
+      <c r="G26">
+        <v>15.246634574269899</v>
+      </c>
+      <c r="H26">
+        <v>17.908309471399551</v>
+      </c>
+      <c r="I26">
+        <v>17.264486743835</v>
+      </c>
+      <c r="J26">
+        <v>17.586398107617278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>215.60905820585202</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>13.589159952943199</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>5.9896711504164504</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>13.5881145463223</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>21.375358050771549</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="5"/>
-        <v>18.643492730551699</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="6"/>
-        <v>8.8088712856655</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="8"/>
-        <v>13.7261820081086</v>
-      </c>
-      <c r="N25">
-        <v>38.203854593570497</v>
-      </c>
-      <c r="O25">
-        <v>43.121811641170403</v>
-      </c>
-      <c r="P25">
-        <v>2.7178319905886399</v>
-      </c>
-      <c r="Q25">
-        <v>1.19793423008329</v>
-      </c>
-      <c r="R25">
-        <v>2.7176229092644602</v>
-      </c>
-      <c r="S25">
-        <v>4.2750716101543098</v>
-      </c>
-      <c r="T25">
-        <v>3.7286985461103401</v>
-      </c>
-      <c r="U25">
-        <v>1.7617742571331001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.958333333278</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="7"/>
-        <v>100.22130631205449</v>
-      </c>
-      <c r="C26">
+        <v>44562.999999999942</v>
+      </c>
+      <c r="B27">
+        <v>113.45692132801651</v>
+      </c>
+      <c r="C27">
+        <v>189.49911999961301</v>
+      </c>
+      <c r="D27">
+        <v>48.960874378711203</v>
+      </c>
+      <c r="E27">
+        <v>25.662864219950649</v>
+      </c>
+      <c r="F27">
+        <v>32.028143936205055</v>
+      </c>
+      <c r="G27">
+        <v>18.450248071515002</v>
+      </c>
+      <c r="H27">
+        <v>1.69738961915435</v>
+      </c>
+      <c r="I27">
+        <v>21.30123747192275</v>
+      </c>
+      <c r="J27">
+        <v>11.49931354553855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>5.2350397866842506</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>19.148395761807251</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>35.015205763349051</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>41.191449389917601</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>15.246634574269899</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="5"/>
-        <v>17.908309471399551</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="6"/>
-        <v>17.264486743835</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="8"/>
-        <v>17.586398107617278</v>
-      </c>
-      <c r="N26">
-        <v>20.044261262410899</v>
-      </c>
-      <c r="O26">
-        <v>1.04700795733685</v>
-      </c>
-      <c r="P26">
-        <v>3.8296791523614502</v>
-      </c>
-      <c r="Q26">
-        <v>7.0030411526698098</v>
-      </c>
-      <c r="R26">
-        <v>8.2382898779835205</v>
-      </c>
-      <c r="S26">
-        <v>3.0493269148539799</v>
-      </c>
-      <c r="T26">
-        <v>3.5816618942799101</v>
-      </c>
-      <c r="U26">
-        <v>3.4528973487669998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <f t="shared" si="9"/>
-        <v>44562.999999999942</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="7"/>
-        <v>113.45692132801651</v>
-      </c>
-      <c r="C27">
+        <v>44563.041666666606</v>
+      </c>
+      <c r="B28">
+        <v>152.92084177800049</v>
+      </c>
+      <c r="C28">
+        <v>209.24529978871749</v>
+      </c>
+      <c r="D28">
+        <v>47.860577035748051</v>
+      </c>
+      <c r="E28">
+        <v>22.8446043141141</v>
+      </c>
+      <c r="F28">
+        <v>27.885147707459449</v>
+      </c>
+      <c r="G28">
+        <v>33.277930362127648</v>
+      </c>
+      <c r="H28">
+        <v>16.21330046153825</v>
+      </c>
+      <c r="I28">
+        <v>29.080919589563102</v>
+      </c>
+      <c r="J28">
+        <v>22.647110025550674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>189.49911999961301</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>48.960874378711203</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>25.662864219950649</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>32.028143936205055</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>18.450248071515002</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
-        <v>1.69738961915435</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="6"/>
-        <v>21.30123747192275</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="8"/>
-        <v>11.49931354553855</v>
-      </c>
-      <c r="N27">
-        <v>22.6913842656033</v>
-      </c>
-      <c r="O27">
-        <v>37.899823999922603</v>
-      </c>
-      <c r="P27">
-        <v>9.7921748757422407</v>
-      </c>
-      <c r="Q27">
-        <v>5.1325728439901299</v>
-      </c>
-      <c r="R27">
-        <v>6.4056287872410103</v>
-      </c>
-      <c r="S27">
-        <v>3.6900496143030002</v>
-      </c>
-      <c r="T27">
-        <v>0.33947792383087</v>
-      </c>
-      <c r="U27">
-        <v>4.2602474943845499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.041666666606</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="7"/>
-        <v>152.92084177800049</v>
-      </c>
-      <c r="C28">
+        <v>44563.08333333327</v>
+      </c>
+      <c r="B29">
+        <v>97.758788581883493</v>
+      </c>
+      <c r="C29">
+        <v>63.604542581158</v>
+      </c>
+      <c r="D29">
+        <v>47.245375364340951</v>
+      </c>
+      <c r="E29">
+        <v>24.621203574210249</v>
+      </c>
+      <c r="F29">
+        <v>16.014938467524949</v>
+      </c>
+      <c r="G29">
+        <v>22.188410386204449</v>
+      </c>
+      <c r="H29">
+        <v>7.5164525552753503</v>
+      </c>
+      <c r="I29">
+        <v>7.30968287190335</v>
+      </c>
+      <c r="J29">
+        <v>7.4130677135893501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>209.24529978871749</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>47.860577035748051</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>22.8446043141141</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>27.885147707459449</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>33.277930362127648</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="5"/>
-        <v>16.21330046153825</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="6"/>
-        <v>29.080919589563102</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="8"/>
-        <v>22.647110025550674</v>
-      </c>
-      <c r="N28">
-        <v>30.584168355600099</v>
-      </c>
-      <c r="O28">
-        <v>41.849059957743499</v>
-      </c>
-      <c r="P28">
-        <v>9.5721154071496102</v>
-      </c>
-      <c r="Q28">
-        <v>4.5689208628228197</v>
-      </c>
-      <c r="R28">
-        <v>5.57702954149189</v>
-      </c>
-      <c r="S28">
-        <v>6.65558607242553</v>
-      </c>
-      <c r="T28">
-        <v>3.2426600923076498</v>
-      </c>
-      <c r="U28">
-        <v>5.8161839179126202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.08333333327</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="7"/>
-        <v>97.758788581883493</v>
-      </c>
-      <c r="C29">
+        <v>44563.124999999935</v>
+      </c>
+      <c r="B30">
+        <v>104.1014434746665</v>
+      </c>
+      <c r="C30">
+        <v>49.216780081232855</v>
+      </c>
+      <c r="D30">
+        <v>2.9679760624772502</v>
+      </c>
+      <c r="E30">
+        <v>48.883319149812998</v>
+      </c>
+      <c r="F30">
+        <v>35.069839365823299</v>
+      </c>
+      <c r="G30">
+        <v>2.5627233964823297</v>
+      </c>
+      <c r="H30">
+        <v>26.682581370723849</v>
+      </c>
+      <c r="I30">
+        <v>8.2955889811806998</v>
+      </c>
+      <c r="J30">
+        <v>17.489085175952276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>63.604542581158</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>47.245375364340951</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>24.621203574210249</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>16.014938467524949</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>22.188410386204449</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="5"/>
-        <v>7.5164525552753503</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="6"/>
-        <v>7.30968287190335</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="8"/>
-        <v>7.4130677135893501</v>
-      </c>
-      <c r="N29">
-        <v>19.551757716376699</v>
-      </c>
-      <c r="O29">
-        <v>12.720908516231599</v>
-      </c>
-      <c r="P29">
-        <v>9.4490750728681903</v>
-      </c>
-      <c r="Q29">
-        <v>4.9242407148420497</v>
-      </c>
-      <c r="R29">
-        <v>3.2029876935049901</v>
-      </c>
-      <c r="S29">
-        <v>4.4376820772408898</v>
-      </c>
-      <c r="T29">
-        <v>1.5032905110550701</v>
-      </c>
-      <c r="U29">
-        <v>1.46193657438067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.124999999935</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="7"/>
-        <v>104.1014434746665</v>
-      </c>
-      <c r="C30">
+        <v>44563.166666666599</v>
+      </c>
+      <c r="B31">
+        <v>219.29137848847</v>
+      </c>
+      <c r="C31">
+        <v>347.10352899378199</v>
+      </c>
+      <c r="D31">
+        <v>43.123801773428397</v>
+      </c>
+      <c r="E31">
+        <v>32.140681530053953</v>
+      </c>
+      <c r="F31">
+        <v>44.239508781573903</v>
+      </c>
+      <c r="G31">
+        <v>35.762269996220148</v>
+      </c>
+      <c r="H31">
+        <v>15.737030240630251</v>
+      </c>
+      <c r="I31">
+        <v>27.29881060630365</v>
+      </c>
+      <c r="J31">
+        <v>21.517920423466951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>49.216780081232855</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>2.9679760624772502</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>48.883319149812998</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>35.069839365823299</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>2.5627233964823297</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
-        <v>26.682581370723849</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="6"/>
-        <v>8.2955889811806998</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="8"/>
-        <v>17.489085175952276</v>
-      </c>
-      <c r="N30">
-        <v>20.8202886949333</v>
-      </c>
-      <c r="O30">
-        <v>9.8433560162465703</v>
-      </c>
-      <c r="P30">
-        <v>0.59359521249545</v>
-      </c>
-      <c r="Q30">
-        <v>9.7766638299625992</v>
-      </c>
-      <c r="R30">
-        <v>7.0139678731646597</v>
-      </c>
-      <c r="S30">
-        <v>0.51254467929646597</v>
-      </c>
-      <c r="T30">
-        <v>5.3365162741447696</v>
-      </c>
-      <c r="U30">
-        <v>1.6591177962361401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.166666666599</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="7"/>
-        <v>219.29137848847</v>
-      </c>
-      <c r="C31">
+        <v>44563.208333333263</v>
+      </c>
+      <c r="B32">
+        <v>9.7000153028726501</v>
+      </c>
+      <c r="C32">
+        <v>47.941609314960999</v>
+      </c>
+      <c r="D32">
+        <v>11.462738011088401</v>
+      </c>
+      <c r="E32">
+        <v>10.2149428964957</v>
+      </c>
+      <c r="F32">
+        <v>25.57261601639015</v>
+      </c>
+      <c r="G32">
+        <v>18.4224457043764</v>
+      </c>
+      <c r="H32">
+        <v>18.526972284022349</v>
+      </c>
+      <c r="I32">
+        <v>6.2590960407578997</v>
+      </c>
+      <c r="J32">
+        <v>12.393034162390125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>347.10352899378199</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>43.123801773428397</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>32.140681530053953</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>44.239508781573903</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>35.762269996220148</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="5"/>
-        <v>15.737030240630251</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="6"/>
-        <v>27.29881060630365</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="8"/>
-        <v>21.517920423466951</v>
-      </c>
-      <c r="N31">
-        <v>43.858275697693998</v>
-      </c>
-      <c r="O31">
-        <v>69.420705798756401</v>
-      </c>
-      <c r="P31">
-        <v>8.6247603546856801</v>
-      </c>
-      <c r="Q31">
-        <v>6.4281363060107903</v>
-      </c>
-      <c r="R31">
-        <v>8.8479017563147799</v>
-      </c>
-      <c r="S31">
-        <v>7.1524539992440301</v>
-      </c>
-      <c r="T31">
-        <v>3.14740604812605</v>
-      </c>
-      <c r="U31">
-        <v>5.4597621212607299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.208333333263</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="7"/>
-        <v>9.7000153028726501</v>
-      </c>
-      <c r="C32">
+        <v>44563.249999999927</v>
+      </c>
+      <c r="B33">
+        <v>277.25573259631551</v>
+      </c>
+      <c r="C33">
+        <v>260.8132490287465</v>
+      </c>
+      <c r="D33">
+        <v>17.23644350113295</v>
+      </c>
+      <c r="E33">
+        <v>9.8461758537690507</v>
+      </c>
+      <c r="F33">
+        <v>14.5511470538609</v>
+      </c>
+      <c r="G33">
+        <v>32.064388563853456</v>
+      </c>
+      <c r="H33">
+        <v>3.2852857117934549</v>
+      </c>
+      <c r="I33">
+        <v>16.754563657699052</v>
+      </c>
+      <c r="J33">
+        <v>10.019924684746254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>47.941609314960999</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>11.462738011088401</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>10.2149428964957</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>25.57261601639015</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>18.4224457043764</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
-        <v>18.526972284022349</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="6"/>
-        <v>6.2590960407578997</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="8"/>
-        <v>12.393034162390125</v>
-      </c>
-      <c r="N32">
-        <v>1.94000306057453</v>
-      </c>
-      <c r="O32">
-        <v>9.5883218629921991</v>
-      </c>
-      <c r="P32">
-        <v>2.2925476022176801</v>
-      </c>
-      <c r="Q32">
-        <v>2.04298857929914</v>
-      </c>
-      <c r="R32">
-        <v>5.1145232032780301</v>
-      </c>
-      <c r="S32">
-        <v>3.68448914087528</v>
-      </c>
-      <c r="T32">
-        <v>3.7053944568044699</v>
-      </c>
-      <c r="U32">
-        <v>1.25181920815158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.249999999927</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="7"/>
-        <v>277.25573259631551</v>
-      </c>
-      <c r="C33">
+        <v>44563.291666666591</v>
+      </c>
+      <c r="B34">
+        <v>163.51897543866698</v>
+      </c>
+      <c r="C34">
+        <v>191.5342494550045</v>
+      </c>
+      <c r="D34">
+        <v>11.7753417140121</v>
+      </c>
+      <c r="E34">
+        <v>49.182929364354749</v>
+      </c>
+      <c r="F34">
+        <v>35.593011334098151</v>
+      </c>
+      <c r="G34">
+        <v>34.017617696551447</v>
+      </c>
+      <c r="H34">
+        <v>23.4553298019623</v>
+      </c>
+      <c r="I34">
+        <v>26.55783872232465</v>
+      </c>
+      <c r="J34">
+        <v>25.006584262143477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>260.8132490287465</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>17.23644350113295</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>9.8461758537690507</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>14.5511470538609</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>32.064388563853456</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>3.2852857117934549</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="6"/>
-        <v>16.754563657699052</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="8"/>
-        <v>10.019924684746254</v>
-      </c>
-      <c r="N33">
-        <v>55.451146519263098</v>
-      </c>
-      <c r="O33">
-        <v>52.162649805749297</v>
-      </c>
-      <c r="P33">
-        <v>3.44728870022659</v>
-      </c>
-      <c r="Q33">
-        <v>1.96923517075381</v>
-      </c>
-      <c r="R33">
-        <v>2.91022941077218</v>
-      </c>
-      <c r="S33">
-        <v>6.4128777127706904</v>
-      </c>
-      <c r="T33">
-        <v>0.65705714235869095</v>
-      </c>
-      <c r="U33">
-        <v>3.3509127315398102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.291666666591</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="7"/>
-        <v>163.51897543866698</v>
-      </c>
-      <c r="C34">
+        <v>44563.333333333256</v>
+      </c>
+      <c r="B35">
+        <v>216.37714050628449</v>
+      </c>
+      <c r="C35">
+        <v>233.56532421166497</v>
+      </c>
+      <c r="D35">
+        <v>7.5836318045413993</v>
+      </c>
+      <c r="E35">
+        <v>2.4678965121876448</v>
+      </c>
+      <c r="F35">
+        <v>5.1956985731211507</v>
+      </c>
+      <c r="G35">
+        <v>15.82162917269315</v>
+      </c>
+      <c r="H35">
+        <v>16.490662574801448</v>
+      </c>
+      <c r="I35">
+        <v>27.360605552400699</v>
+      </c>
+      <c r="J35">
+        <v>21.925634063601073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>191.5342494550045</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>11.7753417140121</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
-        <v>49.182929364354749</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>35.593011334098151</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>34.017617696551447</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
-        <v>23.4553298019623</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="6"/>
-        <v>26.55783872232465</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="8"/>
-        <v>25.006584262143477</v>
-      </c>
-      <c r="N34">
-        <v>32.703795087733397</v>
-      </c>
-      <c r="O34">
-        <v>38.306849891000901</v>
-      </c>
-      <c r="P34">
-        <v>2.3550683428024199</v>
-      </c>
-      <c r="Q34">
-        <v>9.8365858728709501</v>
-      </c>
-      <c r="R34">
-        <v>7.1186022668196296</v>
-      </c>
-      <c r="S34">
-        <v>6.80352353931029</v>
-      </c>
-      <c r="T34">
-        <v>4.6910659603924598</v>
-      </c>
-      <c r="U34">
-        <v>5.3115677444649299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.333333333256</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="7"/>
-        <v>216.37714050628449</v>
-      </c>
-      <c r="C35">
+        <v>44563.37499999992</v>
+      </c>
+      <c r="B36">
+        <v>144.58018776517801</v>
+      </c>
+      <c r="C36">
+        <v>76.357392774052002</v>
+      </c>
+      <c r="D36">
+        <v>21.281835968206998</v>
+      </c>
+      <c r="E36">
+        <v>29.669335282996499</v>
+      </c>
+      <c r="F36">
+        <v>35.810053279238652</v>
+      </c>
+      <c r="G36">
+        <v>31.135978717644601</v>
+      </c>
+      <c r="H36">
+        <v>7.5672587774361499</v>
+      </c>
+      <c r="I36">
+        <v>20.850242364518451</v>
+      </c>
+      <c r="J36">
+        <v>14.208750570977301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>233.56532421166497</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>7.5836318045413993</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>2.4678965121876448</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>5.1956985731211507</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>15.82162917269315</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="5"/>
-        <v>16.490662574801448</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="6"/>
-        <v>27.360605552400699</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="8"/>
-        <v>21.925634063601073</v>
-      </c>
-      <c r="N35">
-        <v>43.2754281012569</v>
-      </c>
-      <c r="O35">
-        <v>46.713064842332997</v>
-      </c>
-      <c r="P35">
-        <v>1.5167263609082799</v>
-      </c>
-      <c r="Q35">
-        <v>0.49357930243752901</v>
-      </c>
-      <c r="R35">
-        <v>1.03913971462423</v>
-      </c>
-      <c r="S35">
-        <v>3.16432583453863</v>
-      </c>
-      <c r="T35">
-        <v>3.2981325149602898</v>
-      </c>
-      <c r="U35">
-        <v>5.4721211104801402</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.37499999992</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="7"/>
-        <v>144.58018776517801</v>
-      </c>
-      <c r="C36">
+        <v>44563.416666666584</v>
+      </c>
+      <c r="B37">
+        <v>76.672346749012007</v>
+      </c>
+      <c r="C37">
+        <v>281.09974359477502</v>
+      </c>
+      <c r="D37">
+        <v>21.12047419802105</v>
+      </c>
+      <c r="E37">
+        <v>17.901876340164449</v>
+      </c>
+      <c r="F37">
+        <v>18.054119076147501</v>
+      </c>
+      <c r="G37">
+        <v>7.7582697238052498</v>
+      </c>
+      <c r="H37">
+        <v>30.97918114324305</v>
+      </c>
+      <c r="I37">
+        <v>28.6750511358761</v>
+      </c>
+      <c r="J37">
+        <v>29.827116139559575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>76.357392774052002</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>21.281835968206998</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>29.669335282996499</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>35.810053279238652</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>31.135978717644601</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="5"/>
-        <v>7.5672587774361499</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="6"/>
-        <v>20.850242364518451</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="8"/>
-        <v>14.208750570977301</v>
-      </c>
-      <c r="N36">
-        <v>28.916037553035601</v>
-      </c>
-      <c r="O36">
-        <v>15.2714785548104</v>
-      </c>
-      <c r="P36">
-        <v>4.2563671936413998</v>
-      </c>
-      <c r="Q36">
-        <v>5.9338670565992997</v>
-      </c>
-      <c r="R36">
-        <v>7.1620106558477303</v>
-      </c>
-      <c r="S36">
-        <v>6.2271957435289202</v>
-      </c>
-      <c r="T36">
-        <v>1.51345175548723</v>
-      </c>
-      <c r="U36">
-        <v>4.17004847290369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.416666666584</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="7"/>
-        <v>76.672346749012007</v>
-      </c>
-      <c r="C37">
+        <v>44563.458333333248</v>
+      </c>
+      <c r="B38">
+        <v>86.235142179082004</v>
+      </c>
+      <c r="C38">
+        <v>279.80558570653795</v>
+      </c>
+      <c r="D38">
+        <v>14.35567976570435</v>
+      </c>
+      <c r="E38">
+        <v>49.218962825675248</v>
+      </c>
+      <c r="F38">
+        <v>18.755727019532248</v>
+      </c>
+      <c r="G38">
+        <v>37.033140921732752</v>
+      </c>
+      <c r="H38">
+        <v>29.840619486706448</v>
+      </c>
+      <c r="I38">
+        <v>15.266009289393949</v>
+      </c>
+      <c r="J38">
+        <v>22.553314388050197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>281.09974359477502</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>21.12047419802105</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>17.901876340164449</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>18.054119076147501</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>7.7582697238052498</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="5"/>
-        <v>30.97918114324305</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="6"/>
-        <v>28.6750511358761</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="8"/>
-        <v>29.827116139559575</v>
-      </c>
-      <c r="N37">
-        <v>15.334469349802401</v>
-      </c>
-      <c r="O37">
-        <v>56.219948718955003</v>
-      </c>
-      <c r="P37">
-        <v>4.2240948396042102</v>
-      </c>
-      <c r="Q37">
-        <v>3.5803752680328902</v>
-      </c>
-      <c r="R37">
-        <v>3.6108238152294998</v>
-      </c>
-      <c r="S37">
-        <v>1.55165394476105</v>
-      </c>
-      <c r="T37">
-        <v>6.1958362286486102</v>
-      </c>
-      <c r="U37">
-        <v>5.7350102271752199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.458333333248</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="7"/>
-        <v>86.235142179082004</v>
-      </c>
-      <c r="C38">
+        <v>44563.499999999913</v>
+      </c>
+      <c r="B39">
+        <v>198.41912588953397</v>
+      </c>
+      <c r="C39">
+        <v>320.34706618016452</v>
+      </c>
+      <c r="D39">
+        <v>21.1466152746052</v>
+      </c>
+      <c r="E39">
+        <v>39.091592367855903</v>
+      </c>
+      <c r="F39">
+        <v>18.6459046633029</v>
+      </c>
+      <c r="G39">
+        <v>30.722894970597601</v>
+      </c>
+      <c r="H39">
+        <v>2.9077882500287648</v>
+      </c>
+      <c r="I39">
+        <v>22.563764908730903</v>
+      </c>
+      <c r="J39">
+        <v>12.735776579379834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>279.80558570653795</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>14.35567976570435</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>49.218962825675248</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>18.755727019532248</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>37.033140921732752</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="5"/>
-        <v>29.840619486706448</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="6"/>
-        <v>15.266009289393949</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="8"/>
-        <v>22.553314388050197</v>
-      </c>
-      <c r="N38">
-        <v>17.2470284358164</v>
-      </c>
-      <c r="O38">
-        <v>55.961117141307597</v>
-      </c>
-      <c r="P38">
-        <v>2.87113595314087</v>
-      </c>
-      <c r="Q38">
-        <v>9.8437925651350504</v>
-      </c>
-      <c r="R38">
-        <v>3.7511454039064498</v>
-      </c>
-      <c r="S38">
-        <v>7.40662818434655</v>
-      </c>
-      <c r="T38">
-        <v>5.9681238973412896</v>
-      </c>
-      <c r="U38">
-        <v>3.0532018578787898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.499999999913</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="7"/>
-        <v>198.41912588953397</v>
-      </c>
-      <c r="C39">
+        <v>44563.541666666577</v>
+      </c>
+      <c r="B40">
+        <v>95.23167618917951</v>
+      </c>
+      <c r="C40">
+        <v>303.67876174603953</v>
+      </c>
+      <c r="D40">
+        <v>20.494288259547503</v>
+      </c>
+      <c r="E40">
+        <v>45.348983750105702</v>
+      </c>
+      <c r="F40">
+        <v>21.240354197478698</v>
+      </c>
+      <c r="G40">
+        <v>31.45771798401395</v>
+      </c>
+      <c r="H40">
+        <v>17.477528787743498</v>
+      </c>
+      <c r="I40">
+        <v>9.0941284141763497</v>
+      </c>
+      <c r="J40">
+        <v>13.285828600959924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f t="shared" si="0"/>
-        <v>320.34706618016452</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>21.1466152746052</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>39.091592367855903</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>18.6459046633029</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>30.722894970597601</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="5"/>
-        <v>2.9077882500287648</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="6"/>
-        <v>22.563764908730903</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="8"/>
-        <v>12.735776579379834</v>
-      </c>
-      <c r="N39">
-        <v>39.683825177906797</v>
-      </c>
-      <c r="O39">
-        <v>64.069413236032901</v>
-      </c>
-      <c r="P39">
-        <v>4.2293230549210401</v>
-      </c>
-      <c r="Q39">
-        <v>7.8183184735711801</v>
-      </c>
-      <c r="R39">
-        <v>3.7291809326605798</v>
-      </c>
-      <c r="S39">
-        <v>6.1445789941195201</v>
-      </c>
-      <c r="T39">
-        <v>0.58155765000575299</v>
-      </c>
-      <c r="U39">
-        <v>4.5127529817461802</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.541666666577</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="7"/>
-        <v>95.23167618917951</v>
-      </c>
-      <c r="C40">
+        <v>44563.583333333241</v>
+      </c>
+      <c r="B41">
+        <v>118.9528374001215</v>
+      </c>
+      <c r="C41">
+        <v>219.40157308220151</v>
+      </c>
+      <c r="D41">
+        <v>35.294418362044603</v>
+      </c>
+      <c r="E41">
+        <v>18.206178492737198</v>
+      </c>
+      <c r="F41">
+        <v>4.2275128314731099</v>
+      </c>
+      <c r="G41">
+        <v>36.518441238719802</v>
+      </c>
+      <c r="H41">
+        <v>5.7663694201747493</v>
+      </c>
+      <c r="I41">
+        <v>20.835089735846001</v>
+      </c>
+      <c r="J41">
+        <v>13.300729578010376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f t="shared" si="0"/>
-        <v>303.67876174603953</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>20.494288259547503</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>45.348983750105702</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>21.240354197478698</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>31.45771798401395</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="5"/>
-        <v>17.477528787743498</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="6"/>
-        <v>9.0941284141763497</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="8"/>
-        <v>13.285828600959924</v>
-      </c>
-      <c r="N40">
-        <v>19.046335237835901</v>
-      </c>
-      <c r="O40">
-        <v>60.7357523492079</v>
-      </c>
-      <c r="P40">
-        <v>4.0988576519095004</v>
-      </c>
-      <c r="Q40">
-        <v>9.0697967500211405</v>
-      </c>
-      <c r="R40">
-        <v>4.2480708394957398</v>
-      </c>
-      <c r="S40">
-        <v>6.2915435968027902</v>
-      </c>
-      <c r="T40">
-        <v>3.4955057575486999</v>
-      </c>
-      <c r="U40">
-        <v>1.81882568283527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.583333333241</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="7"/>
-        <v>118.9528374001215</v>
-      </c>
-      <c r="C41">
+        <v>44563.624999999905</v>
+      </c>
+      <c r="B42">
+        <v>293.50204277267449</v>
+      </c>
+      <c r="C42">
+        <v>75.767391625181503</v>
+      </c>
+      <c r="D42">
+        <v>36.135845501936103</v>
+      </c>
+      <c r="E42">
+        <v>24.233863026774799</v>
+      </c>
+      <c r="F42">
+        <v>0.86725142934279009</v>
+      </c>
+      <c r="G42">
+        <v>5.3158608672301995</v>
+      </c>
+      <c r="H42">
+        <v>27.517164543269953</v>
+      </c>
+      <c r="I42">
+        <v>25.072970954939052</v>
+      </c>
+      <c r="J42">
+        <v>26.295067749104504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f t="shared" si="0"/>
-        <v>219.40157308220151</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>35.294418362044603</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>18.206178492737198</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>4.2275128314731099</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>36.518441238719802</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="5"/>
-        <v>5.7663694201747493</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="6"/>
-        <v>20.835089735846001</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="8"/>
-        <v>13.300729578010376</v>
-      </c>
-      <c r="N41">
-        <v>23.790567480024301</v>
-      </c>
-      <c r="O41">
-        <v>43.880314616440302</v>
-      </c>
-      <c r="P41">
-        <v>7.0588836724089203</v>
-      </c>
-      <c r="Q41">
-        <v>3.6412356985474399</v>
-      </c>
-      <c r="R41">
-        <v>0.84550256629462195</v>
-      </c>
-      <c r="S41">
-        <v>7.3036882477439597</v>
-      </c>
-      <c r="T41">
-        <v>1.1532738840349499</v>
-      </c>
-      <c r="U41">
-        <v>4.1670179471692004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.624999999905</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="7"/>
-        <v>293.50204277267449</v>
-      </c>
-      <c r="C42">
+        <v>44563.66666666657</v>
+      </c>
+      <c r="B43">
+        <v>43.453905876368204</v>
+      </c>
+      <c r="C43">
+        <v>143.998882172864</v>
+      </c>
+      <c r="D43">
+        <v>35.580612728250152</v>
+      </c>
+      <c r="E43">
+        <v>44.682476371188443</v>
+      </c>
+      <c r="F43">
+        <v>0.98368134424427001</v>
+      </c>
+      <c r="G43">
+        <v>8.5093924005874992</v>
+      </c>
+      <c r="H43">
+        <v>22.592835918806248</v>
+      </c>
+      <c r="I43">
+        <v>23.1017837324544</v>
+      </c>
+      <c r="J43">
+        <v>22.847309825630326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f t="shared" si="0"/>
-        <v>75.767391625181503</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>36.135845501936103</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="2"/>
-        <v>24.233863026774799</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>0.86725142934279009</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
-        <v>5.3158608672301995</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="5"/>
-        <v>27.517164543269953</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="6"/>
-        <v>25.072970954939052</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="8"/>
-        <v>26.295067749104504</v>
-      </c>
-      <c r="N42">
-        <v>58.700408554534903</v>
-      </c>
-      <c r="O42">
-        <v>15.1534783250363</v>
-      </c>
-      <c r="P42">
-        <v>7.2271691003872203</v>
-      </c>
-      <c r="Q42">
-        <v>4.8467726053549596</v>
-      </c>
-      <c r="R42">
-        <v>0.17345028586855801</v>
-      </c>
-      <c r="S42">
-        <v>1.06317217344604</v>
-      </c>
-      <c r="T42">
-        <v>5.5034329086539904</v>
-      </c>
-      <c r="U42">
-        <v>5.0145941909878102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.66666666657</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="7"/>
-        <v>43.453905876368204</v>
-      </c>
-      <c r="C43">
+        <v>44563.708333333234</v>
+      </c>
+      <c r="B44">
+        <v>144.013405509677</v>
+      </c>
+      <c r="C44">
+        <v>249.52244877400901</v>
+      </c>
+      <c r="D44">
+        <v>49.283948390335951</v>
+      </c>
+      <c r="E44">
+        <v>9.7844588744182506</v>
+      </c>
+      <c r="F44">
+        <v>8.5514454985938499</v>
+      </c>
+      <c r="G44">
+        <v>28.8607882965896</v>
+      </c>
+      <c r="H44">
+        <v>19.654476450261249</v>
+      </c>
+      <c r="I44">
+        <v>15.93018651585025</v>
+      </c>
+      <c r="J44">
+        <v>17.792331483055751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f t="shared" si="0"/>
-        <v>143.998882172864</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>35.580612728250152</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
-        <v>44.682476371188443</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>0.98368134424427001</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
-        <v>8.5093924005874992</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="5"/>
-        <v>22.592835918806248</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="6"/>
-        <v>23.1017837324544</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="8"/>
-        <v>22.847309825630326</v>
-      </c>
-      <c r="N43">
-        <v>8.6907811752736404</v>
-      </c>
-      <c r="O43">
-        <v>28.799776434572799</v>
-      </c>
-      <c r="P43">
-        <v>7.1161225456500299</v>
-      </c>
-      <c r="Q43">
-        <v>8.9364952742376893</v>
-      </c>
-      <c r="R43">
-        <v>0.19673626884885401</v>
-      </c>
-      <c r="S43">
-        <v>1.7018784801175</v>
-      </c>
-      <c r="T43">
-        <v>4.5185671837612498</v>
-      </c>
-      <c r="U43">
-        <v>4.6203567464908799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.708333333234</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="7"/>
-        <v>144.013405509677</v>
-      </c>
-      <c r="C44">
+        <v>44563.749999999898</v>
+      </c>
+      <c r="B45">
+        <v>129.97883672307199</v>
+      </c>
+      <c r="C45">
+        <v>32.979808492103054</v>
+      </c>
+      <c r="D45">
+        <v>9.31897766578785</v>
+      </c>
+      <c r="E45">
+        <v>16.442965838809251</v>
+      </c>
+      <c r="F45">
+        <v>18.009642141009699</v>
+      </c>
+      <c r="G45">
+        <v>35.8199442747106</v>
+      </c>
+      <c r="H45">
+        <v>24.10373549630155</v>
+      </c>
+      <c r="I45">
+        <v>7.2710561235541507</v>
+      </c>
+      <c r="J45">
+        <v>15.68739580992785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f t="shared" si="0"/>
-        <v>249.52244877400901</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>49.283948390335951</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="2"/>
-        <v>9.7844588744182506</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>8.5514454985938499</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
-        <v>28.8607882965896</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="5"/>
-        <v>19.654476450261249</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="6"/>
-        <v>15.93018651585025</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="8"/>
-        <v>17.792331483055751</v>
-      </c>
-      <c r="N44">
-        <v>28.802681101935399</v>
-      </c>
-      <c r="O44">
-        <v>49.904489754801801</v>
-      </c>
-      <c r="P44">
-        <v>9.8567896780671909</v>
-      </c>
-      <c r="Q44">
-        <v>1.9568917748836501</v>
-      </c>
-      <c r="R44">
-        <v>1.7102890997187701</v>
-      </c>
-      <c r="S44">
-        <v>5.7721576593179202</v>
-      </c>
-      <c r="T44">
-        <v>3.9308952900522498</v>
-      </c>
-      <c r="U44">
-        <v>3.1860373031700502</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.749999999898</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="7"/>
-        <v>129.97883672307199</v>
-      </c>
-      <c r="C45">
+        <v>44563.791666666562</v>
+      </c>
+      <c r="B46">
+        <v>201.95080193026052</v>
+      </c>
+      <c r="C46">
+        <v>5.9815452449017004</v>
+      </c>
+      <c r="D46">
+        <v>44.897139312670298</v>
+      </c>
+      <c r="E46">
+        <v>28.188484090163797</v>
+      </c>
+      <c r="F46">
+        <v>6.2387605203829501</v>
+      </c>
+      <c r="G46">
+        <v>24.679252421246151</v>
+      </c>
+      <c r="H46">
+        <v>2.3294472791235949</v>
+      </c>
+      <c r="I46">
+        <v>2.9321478799559801</v>
+      </c>
+      <c r="J46">
+        <v>2.6307975795397875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f t="shared" si="0"/>
-        <v>32.979808492103054</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>9.31897766578785</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
-        <v>16.442965838809251</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>18.009642141009699</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="4"/>
-        <v>35.8199442747106</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="5"/>
-        <v>24.10373549630155</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="6"/>
-        <v>7.2710561235541507</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="8"/>
-        <v>15.68739580992785</v>
-      </c>
-      <c r="N45">
-        <v>25.9957673446144</v>
-      </c>
-      <c r="O45">
-        <v>6.5959616984206102</v>
-      </c>
-      <c r="P45">
-        <v>1.86379553315757</v>
-      </c>
-      <c r="Q45">
-        <v>3.2885931677618498</v>
-      </c>
-      <c r="R45">
-        <v>3.6019284282019401</v>
-      </c>
-      <c r="S45">
-        <v>7.1639888549421196</v>
-      </c>
-      <c r="T45">
-        <v>4.8207470992603101</v>
-      </c>
-      <c r="U45">
-        <v>1.4542112247108301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.791666666562</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="7"/>
-        <v>201.95080193026052</v>
-      </c>
-      <c r="C46">
+        <v>44563.833333333227</v>
+      </c>
+      <c r="B47">
+        <v>230.29224389494652</v>
+      </c>
+      <c r="C47">
+        <v>216.6969268654035</v>
+      </c>
+      <c r="D47">
+        <v>6.58511643256365</v>
+      </c>
+      <c r="E47">
+        <v>27.563502275601799</v>
+      </c>
+      <c r="F47">
+        <v>9.2540289758816492</v>
+      </c>
+      <c r="G47">
+        <v>23.948672729546598</v>
+      </c>
+      <c r="H47">
+        <v>2.3572864501487349</v>
+      </c>
+      <c r="I47">
+        <v>10.4956875711216</v>
+      </c>
+      <c r="J47">
+        <v>6.4264870106351673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f t="shared" si="0"/>
-        <v>5.9815452449017004</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>44.897139312670298</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="2"/>
-        <v>28.188484090163797</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>6.2387605203829501</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="4"/>
-        <v>24.679252421246151</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="5"/>
-        <v>2.3294472791235949</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="6"/>
-        <v>2.9321478799559801</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="8"/>
-        <v>2.6307975795397875</v>
-      </c>
-      <c r="N46">
-        <v>40.390160386052102</v>
-      </c>
-      <c r="O46">
-        <v>1.1963090489803401</v>
-      </c>
-      <c r="P46">
-        <v>8.9794278625340596</v>
-      </c>
-      <c r="Q46">
-        <v>5.6376968180327598</v>
-      </c>
-      <c r="R46">
-        <v>1.24775210407659</v>
-      </c>
-      <c r="S46">
-        <v>4.9358504842492303</v>
-      </c>
-      <c r="T46">
-        <v>0.46588945582471902</v>
-      </c>
-      <c r="U46">
-        <v>0.58642957599119605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.833333333227</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="7"/>
-        <v>230.29224389494652</v>
-      </c>
-      <c r="C47">
+        <v>44563.874999999891</v>
+      </c>
+      <c r="B48">
+        <v>210.18064942444147</v>
+      </c>
+      <c r="C48">
+        <v>332.23071125975105</v>
+      </c>
+      <c r="D48">
+        <v>34.542603208264602</v>
+      </c>
+      <c r="E48">
+        <v>29.381546860521599</v>
+      </c>
+      <c r="F48">
+        <v>4.35369520359367</v>
+      </c>
+      <c r="G48">
+        <v>27.613800132987699</v>
+      </c>
+      <c r="H48">
+        <v>7.4696433231587998</v>
+      </c>
+      <c r="I48">
+        <v>27.439705498793199</v>
+      </c>
+      <c r="J48">
+        <v>17.454674410976001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f t="shared" si="0"/>
-        <v>216.6969268654035</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>6.58511643256365</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="2"/>
-        <v>27.563502275601799</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>9.2540289758816492</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="4"/>
-        <v>23.948672729546598</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="5"/>
-        <v>2.3572864501487349</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="6"/>
-        <v>10.4956875711216</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="8"/>
-        <v>6.4264870106351673</v>
-      </c>
-      <c r="N47">
-        <v>46.058448778989302</v>
-      </c>
-      <c r="O47">
-        <v>43.339385373080702</v>
-      </c>
-      <c r="P47">
-        <v>1.31702328651273</v>
-      </c>
-      <c r="Q47">
-        <v>5.5127004551203598</v>
-      </c>
-      <c r="R47">
-        <v>1.8508057951763299</v>
-      </c>
-      <c r="S47">
-        <v>4.7897345459093197</v>
-      </c>
-      <c r="T47">
-        <v>0.47145729002974701</v>
-      </c>
-      <c r="U47">
-        <v>2.0991375142243198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.874999999891</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="7"/>
-        <v>210.18064942444147</v>
-      </c>
-      <c r="C48">
+        <v>44563.916666666555</v>
+      </c>
+      <c r="B49">
+        <v>269.3230213374265</v>
+      </c>
+      <c r="C49">
+        <v>91.733427609553999</v>
+      </c>
+      <c r="D49">
+        <v>25.476638413221199</v>
+      </c>
+      <c r="E49">
+        <v>12.95459929586865</v>
+      </c>
+      <c r="F49">
+        <v>13.702685585497749</v>
+      </c>
+      <c r="G49">
+        <v>0.35593810226302453</v>
+      </c>
+      <c r="H49">
+        <v>18.736455231473201</v>
+      </c>
+      <c r="I49">
+        <v>25.294130966796452</v>
+      </c>
+      <c r="J49">
+        <v>22.015293099134826</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f t="shared" si="0"/>
-        <v>332.23071125975105</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>34.542603208264602</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="2"/>
-        <v>29.381546860521599</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>4.35369520359367</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="4"/>
-        <v>27.613800132987699</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="5"/>
-        <v>7.4696433231587998</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="6"/>
-        <v>27.439705498793199</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="8"/>
-        <v>17.454674410976001</v>
-      </c>
-      <c r="N48">
-        <v>42.036129884888297</v>
-      </c>
-      <c r="O48">
-        <v>66.446142251950207</v>
-      </c>
-      <c r="P48">
-        <v>6.9085206416529203</v>
-      </c>
-      <c r="Q48">
-        <v>5.8763093721043198</v>
-      </c>
-      <c r="R48">
-        <v>0.87073904071873398</v>
-      </c>
-      <c r="S48">
-        <v>5.5227600265975401</v>
-      </c>
-      <c r="T48">
-        <v>1.49392866463176</v>
-      </c>
-      <c r="U48">
-        <v>5.4879410997586398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <f t="shared" si="9"/>
-        <v>44563.916666666555</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="7"/>
-        <v>269.3230213374265</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>91.733427609553999</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>25.476638413221199</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="2"/>
-        <v>12.95459929586865</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>13.702685585497749</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="4"/>
-        <v>0.35593810226302453</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="5"/>
-        <v>18.736455231473201</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="6"/>
-        <v>25.294130966796452</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="8"/>
-        <v>22.015293099134826</v>
-      </c>
-      <c r="N49">
-        <v>53.864604267485298</v>
-      </c>
-      <c r="O49">
-        <v>18.3466855219108</v>
-      </c>
-      <c r="P49">
-        <v>5.09532768264424</v>
-      </c>
-      <c r="Q49">
-        <v>2.5909198591737299</v>
-      </c>
-      <c r="R49">
-        <v>2.7405371170995498</v>
-      </c>
-      <c r="S49">
-        <v>7.1187620452604905E-2</v>
-      </c>
-      <c r="T49">
-        <v>3.7472910462946398</v>
-      </c>
-      <c r="U49">
-        <v>5.0588261933592902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <f t="shared" si="9"/>
         <v>44563.958333333219</v>
       </c>
       <c r="B50">
-        <f t="shared" si="7"/>
         <v>33.34625359906515</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
         <v>95.284949123924491</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
         <v>23.034561899109601</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
         <v>19.968267810215199</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
         <v>1.0256673037458699</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
         <v>6.6274535148051505</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
         <v>12.513735741407499</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
         <v>22.102806240620598</v>
       </c>
       <c r="J50">
-        <f t="shared" si="8"/>
         <v>17.308270991014048</v>
-      </c>
-      <c r="N50">
-        <v>6.6692507198130304</v>
-      </c>
-      <c r="O50">
-        <v>19.0569898247849</v>
-      </c>
-      <c r="P50">
-        <v>4.60691237982192</v>
-      </c>
-      <c r="Q50">
-        <v>3.9936535620430398</v>
-      </c>
-      <c r="R50">
-        <v>0.20513346074917399</v>
-      </c>
-      <c r="S50">
-        <v>1.3254907029610301</v>
-      </c>
-      <c r="T50">
-        <v>2.5027471482814998</v>
-      </c>
-      <c r="U50">
-        <v>4.4205612481241197</v>
       </c>
     </row>
   </sheetData>
@@ -4731,17 +3140,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4784,9 +3193,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4800,7 +3211,7 @@
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4840,14 +3251,8 @@
       <c r="M1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4855,11 +3260,9 @@
         <v>220</v>
       </c>
       <c r="D2">
-        <f>D3+0.5</f>
         <v>81.400000000000006</v>
       </c>
       <c r="E2">
-        <f>E3</f>
         <v>9.5</v>
       </c>
       <c r="G2">
@@ -4871,14 +3274,8 @@
       <c r="I2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4901,7 +3298,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4909,11 +3306,9 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <f>D3-P2</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E4">
-        <f>E3</f>
         <v>9.5</v>
       </c>
       <c r="G4">
@@ -4926,7 +3321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4934,11 +3329,9 @@
         <v>110</v>
       </c>
       <c r="D5">
-        <f>D4</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E5">
-        <f>E4+Q2</f>
         <v>10.5</v>
       </c>
       <c r="G5">
@@ -4951,7 +3344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -4959,11 +3352,9 @@
         <v>110</v>
       </c>
       <c r="D6">
-        <f>D5</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E6">
-        <f>E5+Q2</f>
         <v>11.5</v>
       </c>
       <c r="G6">
@@ -4976,7 +3367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4984,11 +3375,9 @@
         <v>110</v>
       </c>
       <c r="D7">
-        <f>D6</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E7">
-        <f>E6+Q2</f>
         <v>12.5</v>
       </c>
       <c r="G7">
@@ -5001,7 +3390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -5009,11 +3398,9 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <f>D6-P2</f>
         <v>78.900000000000006</v>
       </c>
       <c r="E8">
-        <f>E6</f>
         <v>11.5</v>
       </c>
       <c r="G8">
@@ -5026,7 +3413,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -5034,11 +3421,9 @@
         <v>110</v>
       </c>
       <c r="D9">
-        <f>D8-P2</f>
         <v>77.900000000000006</v>
       </c>
       <c r="E9">
-        <f>E8</f>
         <v>11.5</v>
       </c>
       <c r="G9">
@@ -5051,7 +3436,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -5059,11 +3444,9 @@
         <v>110</v>
       </c>
       <c r="D10">
-        <f>D9-P2</f>
         <v>76.900000000000006</v>
       </c>
       <c r="E10">
-        <f>E9</f>
         <v>11.5</v>
       </c>
       <c r="G10">
@@ -5076,7 +3459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -5084,11 +3467,9 @@
         <v>110</v>
       </c>
       <c r="D11">
-        <f>D4-P2</f>
         <v>78.900000000000006</v>
       </c>
       <c r="E11">
-        <f>E4</f>
         <v>9.5</v>
       </c>
       <c r="G11">
@@ -5101,7 +3482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -5109,11 +3490,9 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <f>D11</f>
         <v>78.900000000000006</v>
       </c>
       <c r="E12">
-        <f>E11-Q2</f>
         <v>8.5</v>
       </c>
       <c r="G12">
@@ -5126,7 +3505,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -5134,11 +3513,9 @@
         <v>110</v>
       </c>
       <c r="D13">
-        <f>D11-P2</f>
         <v>77.900000000000006</v>
       </c>
       <c r="E13">
-        <f>E11</f>
         <v>9.5</v>
       </c>
       <c r="G13">
@@ -5151,7 +3528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -5159,11 +3536,9 @@
         <v>110</v>
       </c>
       <c r="D14">
-        <f>D13-P2</f>
         <v>76.900000000000006</v>
       </c>
       <c r="E14">
-        <f>E13</f>
         <v>9.5</v>
       </c>
       <c r="G14">
@@ -5176,7 +3551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -5184,11 +3559,9 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <f>D14</f>
         <v>76.900000000000006</v>
       </c>
       <c r="E15">
-        <f>E14-Q2</f>
         <v>8.5</v>
       </c>
       <c r="G15">
@@ -5201,7 +3574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -5209,11 +3582,9 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <f>D14-P2</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E16">
-        <f>E14</f>
         <v>9.5</v>
       </c>
       <c r="G16">
@@ -5234,11 +3605,9 @@
         <v>110</v>
       </c>
       <c r="D17">
-        <f>D16</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E17">
-        <f>E16-Q2</f>
         <v>8.5</v>
       </c>
       <c r="G17">
@@ -5259,11 +3628,9 @@
         <v>110</v>
       </c>
       <c r="D18">
-        <f>D16-P2</f>
         <v>74.900000000000006</v>
       </c>
       <c r="E18">
-        <f>E16</f>
         <v>9.5</v>
       </c>
       <c r="G18">
@@ -5284,11 +3651,9 @@
         <v>110</v>
       </c>
       <c r="D19">
-        <f>D9</f>
         <v>77.900000000000006</v>
       </c>
       <c r="E19">
-        <f>E9+Q2</f>
         <v>12.5</v>
       </c>
       <c r="G19">
@@ -5303,17 +3668,15 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20">
         <v>110</v>
       </c>
       <c r="D20">
-        <f>D17-P2</f>
         <v>74.900000000000006</v>
       </c>
       <c r="E20">
-        <f>E17</f>
         <v>8.5</v>
       </c>
       <c r="G20">
@@ -5335,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,7 +3726,7 @@
     <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5398,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M1" t="s">
         <v>33</v>
@@ -5410,13 +3773,13 @@
         <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5427,7 +3790,6 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <f>U2*$T$2</f>
         <v>35</v>
       </c>
       <c r="E2" t="s">
@@ -5446,14 +3808,8 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>0.5</v>
-      </c>
-      <c r="U2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -5464,7 +3820,6 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D17" si="0">U3*$T$2</f>
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -5483,11 +3838,8 @@
       <c r="Q3">
         <v>4</v>
       </c>
-      <c r="U3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -5498,7 +3850,6 @@
         <v>106</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="E4" t="s">
@@ -5517,11 +3868,8 @@
       <c r="Q4" s="6">
         <v>3</v>
       </c>
-      <c r="U4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -5532,7 +3880,6 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E5" t="s">
@@ -5551,11 +3898,8 @@
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="U5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -5566,7 +3910,6 @@
         <v>108</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
       <c r="E6" t="s">
@@ -5585,11 +3928,8 @@
       <c r="Q6">
         <v>3</v>
       </c>
-      <c r="U6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -5600,7 +3940,6 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E7" t="s">
@@ -5619,11 +3958,8 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="U7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -5634,7 +3970,6 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="E8" t="s">
@@ -5653,11 +3988,8 @@
       <c r="Q8">
         <v>2</v>
       </c>
-      <c r="U8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -5668,7 +4000,6 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E9" t="s">
@@ -5687,11 +4018,8 @@
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="U9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -5702,14 +4030,13 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10">
@@ -5721,11 +4048,8 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="U10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -5736,7 +4060,6 @@
         <v>112</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E11" t="s">
@@ -5755,11 +4078,8 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -5770,7 +4090,6 @@
         <v>113</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
       <c r="E12" t="s">
@@ -5789,11 +4108,8 @@
       <c r="Q12">
         <v>3</v>
       </c>
-      <c r="U12">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -5804,7 +4120,6 @@
         <v>114</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E13" t="s">
@@ -5823,11 +4138,8 @@
       <c r="Q13">
         <v>3</v>
       </c>
-      <c r="U13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -5838,7 +4150,6 @@
         <v>115</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
       <c r="E14" t="s">
@@ -5857,11 +4168,8 @@
       <c r="Q14">
         <v>4</v>
       </c>
-      <c r="U14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -5872,7 +4180,6 @@
         <v>116</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E15" t="s">
@@ -5891,11 +4198,8 @@
       <c r="Q15">
         <v>1</v>
       </c>
-      <c r="U15">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -5906,7 +4210,6 @@
         <v>117</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
       <c r="E16" t="s">
@@ -5925,11 +4228,8 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -5940,7 +4240,6 @@
         <v>132</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E17" t="s">
@@ -5959,19 +4258,16 @@
       <c r="Q17">
         <v>2</v>
       </c>
-      <c r="U17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18">
         <v>27</v>
@@ -5992,13 +4288,10 @@
       <c r="Q18">
         <v>2</v>
       </c>
-      <c r="U18">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
@@ -6007,7 +4300,6 @@
         <v>133</v>
       </c>
       <c r="D19">
-        <f>U19*$T$2</f>
         <v>27</v>
       </c>
       <c r="E19" t="s">
@@ -6025,9 +4317,6 @@
       </c>
       <c r="Q19">
         <v>1</v>
-      </c>
-      <c r="U19">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6041,7 +4330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B254C9-296C-496E-B9D1-44F56B1564BD}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -6061,30 +4350,30 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -6093,7 +4382,7 @@
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
@@ -6103,7 +4392,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -6112,7 +4401,7 @@
         <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
@@ -6125,7 +4414,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -6134,7 +4423,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
@@ -6144,7 +4433,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -6153,18 +4442,18 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
@@ -6173,20 +4462,20 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -6195,7 +4484,7 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
@@ -6208,7 +4497,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -6217,20 +4506,20 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -6239,20 +4528,20 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -6261,35 +4550,35 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6372,13 +4661,13 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -6623,10 +4912,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10">
         <v>5.6211919330659503</v>
@@ -6756,7 +5045,7 @@
         <v>92</v>
       </c>
       <c r="V1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="W1" t="s">
         <v>3</v>
@@ -6765,13 +5054,13 @@
         <v>86</v>
       </c>
       <c r="Y1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AA1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">

--- a/jupyter_notebooks/file/input/switches_v1/network.xlsx
+++ b/jupyter_notebooks/file/input/switches_v1/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\switches_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/file/input/switches_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD918191-1724-430E-8689-B64AD4AF6EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FD918191-1724-430E-8689-B64AD4AF6EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D5EB15-24DF-4CDB-91BA-31B7DAC873E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
+    <workbookView xWindow="-25320" yWindow="-8805" windowWidth="25440" windowHeight="15270" firstSheet="5" activeTab="5" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="nodes" sheetId="1" r:id="rId3"/>
     <sheet name="lines" sheetId="4" r:id="rId4"/>
     <sheet name="switches" sheetId="14" r:id="rId5"/>
-    <sheet name="loads" sheetId="8" r:id="rId6"/>
-    <sheet name="generators" sheetId="2" r:id="rId7"/>
-    <sheet name="external_gen" sheetId="9" r:id="rId8"/>
-    <sheet name="tr_type" sheetId="6" r:id="rId9"/>
-    <sheet name="transformers" sheetId="3" r:id="rId10"/>
-    <sheet name="ln_type" sheetId="7" r:id="rId11"/>
-    <sheet name="cost" sheetId="10" r:id="rId12"/>
-    <sheet name="profiles" sheetId="11" r:id="rId13"/>
-    <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="static_generators" sheetId="15" r:id="rId6"/>
+    <sheet name="loads" sheetId="8" r:id="rId7"/>
+    <sheet name="generators" sheetId="2" r:id="rId8"/>
+    <sheet name="external_gen" sheetId="9" r:id="rId9"/>
+    <sheet name="tr_type" sheetId="6" r:id="rId10"/>
+    <sheet name="transformers" sheetId="3" r:id="rId11"/>
+    <sheet name="ln_type" sheetId="7" r:id="rId12"/>
+    <sheet name="cost" sheetId="10" r:id="rId13"/>
+    <sheet name="profiles" sheetId="11" r:id="rId14"/>
+    <sheet name="crews" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -667,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -677,10 +678,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -962,15 +962,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>144</v>
       </c>
@@ -981,7 +981,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -996,7 +996,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>44562.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -1036,75 +1036,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
+      <c r="B2">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0.26</v>
+      </c>
+      <c r="G2">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-9</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1113,78 +1167,75 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.41</v>
-      </c>
-      <c r="D2">
-        <v>8.75</v>
-      </c>
-      <c r="H2">
-        <v>0.47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1193,24 +1244,104 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.41</v>
+      </c>
+      <c r="D2">
+        <v>8.75</v>
+      </c>
+      <c r="H2">
+        <v>0.47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03625BB4-D62C-4FF6-AAD9-1E9790CBA541}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1367,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1278,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1292,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1306,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1320,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1334,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1376,7 +1507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1390,7 +1521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1404,7 +1535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1418,7 +1549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -1432,7 +1563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1452,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
   <dimension ref="A1:J50"/>
   <sheetViews>
@@ -1460,14 +1591,14 @@
       <selection activeCell="M1" sqref="M1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -1499,7 +1630,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -1531,7 +1662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -1564,7 +1695,7 @@
         <v>19.934894485517049</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>A3+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
@@ -1597,7 +1728,7 @@
         <v>23.308727319461724</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A50" si="0">A4+TIME(1,0,0)</f>
         <v>44562.083333333328</v>
@@ -1630,7 +1761,7 @@
         <v>17.474943310487475</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>44562.124999999993</v>
@@ -1663,7 +1794,7 @@
         <v>15.424210251501449</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>44562.166666666657</v>
@@ -1696,7 +1827,7 @@
         <v>13.129585685334924</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>44562.208333333321</v>
@@ -1729,7 +1860,7 @@
         <v>21.605120970748523</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>44562.249999999985</v>
@@ -1762,7 +1893,7 @@
         <v>15.049400673234874</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>44562.29166666665</v>
@@ -1795,7 +1926,7 @@
         <v>15.882207877115526</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>44562.333333333314</v>
@@ -1828,7 +1959,7 @@
         <v>17.353116948353374</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>44562.374999999978</v>
@@ -1861,7 +1992,7 @@
         <v>19.733441000213475</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>44562.416666666642</v>
@@ -1894,7 +2025,7 @@
         <v>11.638532965343124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>44562.458333333307</v>
@@ -1927,7 +2058,7 @@
         <v>22.194872517460176</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>44562.499999999971</v>
@@ -1960,7 +2091,7 @@
         <v>4.5310178812890678</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>44562.541666666635</v>
@@ -1993,7 +2124,7 @@
         <v>11.242507011693474</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>44562.583333333299</v>
@@ -2026,7 +2157,7 @@
         <v>14.748263744983225</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>44562.624999999964</v>
@@ -2059,7 +2190,7 @@
         <v>22.813796021891275</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>44562.666666666628</v>
@@ -2092,7 +2223,7 @@
         <v>16.953457419080074</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>44562.708333333292</v>
@@ -2125,7 +2256,7 @@
         <v>4.1637255327531282</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>44562.749999999956</v>
@@ -2158,7 +2289,7 @@
         <v>17.949039470568223</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>44562.791666666621</v>
@@ -2191,7 +2322,7 @@
         <v>4.1869132005201086</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>44562.833333333285</v>
@@ -2224,7 +2355,7 @@
         <v>29.493936915211602</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>44562.874999999949</v>
@@ -2257,7 +2388,7 @@
         <v>18.388638835419776</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>44562.916666666613</v>
@@ -2290,7 +2421,7 @@
         <v>13.7261820081086</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>44562.958333333278</v>
@@ -2323,7 +2454,7 @@
         <v>17.586398107617278</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>44562.999999999942</v>
@@ -2356,7 +2487,7 @@
         <v>11.49931354553855</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>44563.041666666606</v>
@@ -2389,7 +2520,7 @@
         <v>22.647110025550674</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>44563.08333333327</v>
@@ -2422,7 +2553,7 @@
         <v>7.4130677135893501</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>44563.124999999935</v>
@@ -2455,7 +2586,7 @@
         <v>17.489085175952276</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>44563.166666666599</v>
@@ -2488,7 +2619,7 @@
         <v>21.517920423466951</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>44563.208333333263</v>
@@ -2521,7 +2652,7 @@
         <v>12.393034162390125</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>44563.249999999927</v>
@@ -2554,7 +2685,7 @@
         <v>10.019924684746254</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>44563.291666666591</v>
@@ -2587,7 +2718,7 @@
         <v>25.006584262143477</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>44563.333333333256</v>
@@ -2620,7 +2751,7 @@
         <v>21.925634063601073</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>44563.37499999992</v>
@@ -2653,7 +2784,7 @@
         <v>14.208750570977301</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>44563.416666666584</v>
@@ -2686,7 +2817,7 @@
         <v>29.827116139559575</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>44563.458333333248</v>
@@ -2719,7 +2850,7 @@
         <v>22.553314388050197</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>44563.499999999913</v>
@@ -2752,7 +2883,7 @@
         <v>12.735776579379834</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>44563.541666666577</v>
@@ -2785,7 +2916,7 @@
         <v>13.285828600959924</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>44563.583333333241</v>
@@ -2818,7 +2949,7 @@
         <v>13.300729578010376</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>44563.624999999905</v>
@@ -2851,7 +2982,7 @@
         <v>26.295067749104504</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>44563.66666666657</v>
@@ -2884,7 +3015,7 @@
         <v>22.847309825630326</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>44563.708333333234</v>
@@ -2917,7 +3048,7 @@
         <v>17.792331483055751</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44563.749999999898</v>
@@ -2950,7 +3081,7 @@
         <v>15.68739580992785</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44563.791666666562</v>
@@ -2983,7 +3114,7 @@
         <v>2.6307975795397875</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>44563.833333333227</v>
@@ -3016,7 +3147,7 @@
         <v>6.4264870106351673</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>44563.874999999891</v>
@@ -3049,7 +3180,7 @@
         <v>17.454674410976001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>44563.916666666555</v>
@@ -3082,7 +3213,7 @@
         <v>22.015293099134826</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>44563.958333333219</v>
@@ -3122,33 +3253,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -3165,9 +3296,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3195,23 +3326,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3298,7 +3429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3321,7 +3452,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +3475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3367,7 +3498,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -3390,7 +3521,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -3413,7 +3544,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -3436,7 +3567,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3459,7 +3590,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -3482,7 +3613,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3505,7 +3636,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -3528,7 +3659,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3551,7 +3682,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -3574,7 +3705,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3597,7 +3728,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -3620,7 +3751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3643,7 +3774,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -3666,7 +3797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -3704,29 +3835,29 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3910,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3809,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3839,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3869,7 +4000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3899,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -3929,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -3959,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -3989,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -4019,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -4049,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4079,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -4109,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4139,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -4169,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4199,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4229,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -4259,7 +4390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -4289,7 +4420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -4334,15 +4465,15 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -4384,13 +4515,12 @@
       <c r="D2" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -4403,7 +4533,6 @@
       <c r="D3" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>105</v>
       </c>
@@ -4412,7 +4541,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -4425,13 +4554,12 @@
       <c r="D4" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -4444,14 +4572,13 @@
       <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>182</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -4464,7 +4591,6 @@
       <c r="D6" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="2" t="s">
         <v>105</v>
       </c>
@@ -4473,7 +4599,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -4486,7 +4612,6 @@
       <c r="D7" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
         <v>105</v>
       </c>
@@ -4495,7 +4620,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -4508,7 +4633,6 @@
       <c r="D8" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>105</v>
       </c>
@@ -4517,7 +4641,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -4530,7 +4654,6 @@
       <c r="D9" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
         <v>105</v>
       </c>
@@ -4539,7 +4662,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -4552,7 +4675,6 @@
       <c r="D10" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
         <v>105</v>
       </c>
@@ -4561,7 +4683,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -4587,6 +4709,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C552DEC9-2982-4FF0-B7BA-224D428BCB5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68F50D-BD38-47D8-9610-A2EF7C397A58}">
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -4594,27 +4728,27 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4670,7 +4804,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4700,7 +4834,7 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4730,7 +4864,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4760,7 +4894,7 @@
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -4790,7 +4924,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -4820,7 +4954,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -4850,7 +4984,7 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -4880,7 +5014,7 @@
       </c>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -4910,7 +5044,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -4945,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5B7B5-BF13-4654-A134-6B30DC3D029F}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
@@ -4953,34 +5087,34 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5063,7 +5197,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5094,7 +5228,7 @@
       </c>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5125,7 +5259,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -5156,7 +5290,7 @@
       </c>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -5187,7 +5321,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -5218,7 +5352,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -5249,117 +5383,9 @@
       </c>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="M8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>-1000</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>-1000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5367,129 +5393,106 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>220</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>0.26</v>
-      </c>
-      <c r="G2">
-        <v>55</v>
-      </c>
-      <c r="H2">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>-1000</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L2">
-        <v>-9</v>
-      </c>
-      <c r="M2">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>1.5</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
   </sheetData>
